--- a/3_Component_Results/CONSTR/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,19 +600,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.597742815479322</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-3.638226581078521</v>
       </c>
       <c r="D2">
-        <v>5.434240009800993</v>
-      </c>
-      <c r="E2">
-        <v>0.6185248307282336</v>
-      </c>
-      <c r="F2">
-        <v>0.8303191719459733</v>
+        <v>4.205275130507374</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,25 +614,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-9.072466590879515</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.07473511353578</v>
       </c>
       <c r="D3">
-        <v>0.6997791549743795</v>
+        <v>3.445473860180627</v>
       </c>
       <c r="E3">
-        <v>1.275501603403967</v>
-      </c>
-      <c r="F3">
-        <v>-1.471414057497327</v>
-      </c>
-      <c r="G3">
-        <v>0.9421783212153088</v>
-      </c>
-      <c r="H3">
-        <v>0.9673395628409622</v>
+        <v>-0.5275052632325985</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,19 +631,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3.374955958561401</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.38219019836454</v>
       </c>
       <c r="D4">
-        <v>-2.534697719313414</v>
-      </c>
-      <c r="E4">
-        <v>0.2002635817981826</v>
-      </c>
-      <c r="F4">
-        <v>0.4136244516675873</v>
+        <v>-1.081220374405973</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,25 +645,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4.916887917677954</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1.76892604752409</v>
       </c>
       <c r="D5">
-        <v>-0.2740812214505297</v>
+        <v>1.386265842011042</v>
       </c>
       <c r="E5">
-        <v>0.4572847814320511</v>
-      </c>
-      <c r="F5">
-        <v>-3.825138543884265</v>
-      </c>
-      <c r="G5">
-        <v>-0.8874097579184477</v>
-      </c>
-      <c r="H5">
-        <v>0.2423827238645657</v>
+        <v>-6.333726098490459</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,19 +662,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-1.494844826073561</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.749771818182623</v>
       </c>
       <c r="D6">
-        <v>-4.461632567712684</v>
-      </c>
-      <c r="E6">
-        <v>-1.410521893214394</v>
-      </c>
-      <c r="F6">
-        <v>-0.223408421163839</v>
+        <v>-6.799517243518864</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +676,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5.211404385895307</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-5.47162544447049</v>
       </c>
       <c r="D7">
-        <v>1.104483377884534</v>
+        <v>1.798541678226129</v>
       </c>
       <c r="E7">
-        <v>-0.2943073782911512</v>
-      </c>
-      <c r="F7">
-        <v>2.407443196045719</v>
-      </c>
-      <c r="G7">
-        <v>-1.322037416868938</v>
-      </c>
-      <c r="H7">
-        <v>-1.866758137758396</v>
+        <v>-0.241830535826935</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,19 +693,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-6.576108822355025</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2.717704714585622</v>
       </c>
       <c r="D8">
-        <v>3.326606232405211</v>
-      </c>
-      <c r="E8">
-        <v>0.4120236695196695</v>
-      </c>
-      <c r="F8">
-        <v>-0.3831220649134224</v>
+        <v>1.241805537018038</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,25 +707,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-0.6089015178195898</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.515790278543889</v>
       </c>
       <c r="D9">
-        <v>-0.1091373233875714</v>
+        <v>2.494576937690851</v>
       </c>
       <c r="E9">
-        <v>0.7505197099834933</v>
-      </c>
-      <c r="F9">
-        <v>-2.09155740305782</v>
-      </c>
-      <c r="G9">
-        <v>-1.392503442213979</v>
-      </c>
-      <c r="H9">
-        <v>-0.1153984103011254</v>
+        <v>-0.8855721111757617</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,19 +724,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.624927601931461</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.159385394431581</v>
       </c>
       <c r="D10">
-        <v>-2.42674894631709</v>
-      </c>
-      <c r="E10">
-        <v>-1.164706094261874</v>
-      </c>
-      <c r="F10">
-        <v>0.2719731769815044</v>
+        <v>-0.498200523893132</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,25 +738,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>4.586134340748671</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-0.8856747324432916</v>
       </c>
       <c r="D11">
-        <v>-0.1155010315686553</v>
+        <v>2.630199927123314</v>
       </c>
       <c r="E11">
-        <v>-0.05790387891002524</v>
-      </c>
-      <c r="F11">
-        <v>-3.072476362954049</v>
-      </c>
-      <c r="G11">
-        <v>-2.655289327464402</v>
-      </c>
-      <c r="H11">
-        <v>0.03972153055137539</v>
+        <v>-1.345078273456636</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,19 +755,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-0.7701737008746363</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.645913254152134</v>
       </c>
       <c r="D12">
-        <v>-3.056763035925229</v>
-      </c>
-      <c r="E12">
-        <v>-2.662739423599178</v>
-      </c>
-      <c r="F12">
-        <v>0.03243624750722063</v>
+        <v>-1.352363556500791</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,25 +769,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>5.702676290077363</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-0.7393403901740778</v>
       </c>
       <c r="D13">
-        <v>0.6454594138339336</v>
+        <v>-3.069527420322487</v>
       </c>
       <c r="E13">
-        <v>-0.2932473272617955</v>
-      </c>
-      <c r="F13">
-        <v>3.01829345506772</v>
-      </c>
-      <c r="G13">
-        <v>0.111947902004502</v>
-      </c>
-      <c r="H13">
-        <v>0.6008376882472248</v>
+        <v>4.523499095693225</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,19 +786,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-1.384799804008011</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-2.961827815535258</v>
       </c>
       <c r="D14">
-        <v>3.125993059854949</v>
-      </c>
-      <c r="E14">
-        <v>0.2058941941187697</v>
-      </c>
-      <c r="F14">
-        <v>0.695387370074215</v>
+        <v>4.618048777520215</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,25 +800,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-6.087820875390207</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>4.509104179149247</v>
       </c>
       <c r="D15">
-        <v>0.586442771703247</v>
+        <v>-0.408878388285103</v>
       </c>
       <c r="E15">
-        <v>0.1428044017819161</v>
-      </c>
-      <c r="F15">
-        <v>0.8578286986164727</v>
-      </c>
-      <c r="G15">
-        <v>0.8765542872378376</v>
-      </c>
-      <c r="H15">
-        <v>0.1204774087570257</v>
+        <v>2.261307915427508</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -922,19 +817,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3.922661407446001</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-0.5219977203055064</v>
       </c>
       <c r="D16">
-        <v>0.7447093665960693</v>
-      </c>
-      <c r="E16">
-        <v>0.7833752825965803</v>
-      </c>
-      <c r="F16">
-        <v>0.08534403877879981</v>
+        <v>2.226174545449283</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -942,25 +831,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-1.266707086901576</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.549078933342784</v>
       </c>
       <c r="D17">
-        <v>-0.5917515733276986</v>
+        <v>-1.463449866686304</v>
       </c>
       <c r="E17">
-        <v>-0.3188294158516527</v>
-      </c>
-      <c r="F17">
-        <v>1.137357586742937</v>
-      </c>
-      <c r="G17">
-        <v>-0.03184445819032078</v>
-      </c>
-      <c r="H17">
-        <v>-0.8118272349819902</v>
+        <v>0.3417626104847358</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -968,31 +848,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2.140830506670483</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-1.257004047973709</v>
       </c>
       <c r="D18">
-        <v>1.343803405455532</v>
+        <v>0.2725884715833615</v>
       </c>
       <c r="E18">
-        <v>0.09437709636040381</v>
+        <v>-0.1956546153620593</v>
       </c>
       <c r="F18">
-        <v>-0.8810013738833644</v>
-      </c>
-      <c r="G18">
-        <v>-0.1106373294238665</v>
-      </c>
-      <c r="H18">
-        <v>-0.3046540234713859</v>
-      </c>
-      <c r="I18">
-        <v>-0.06974623844186567</v>
-      </c>
-      <c r="J18">
-        <v>-0.4458873417698894</v>
+        <v>0.1728969643163225</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1000,25 +868,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-2.60080745342924</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.4933780741577038</v>
       </c>
       <c r="D19">
-        <v>-0.6602117713090221</v>
+        <v>-0.05422325775745662</v>
       </c>
       <c r="E19">
-        <v>0.03124023173063506</v>
-      </c>
-      <c r="F19">
-        <v>-0.1632226658667832</v>
-      </c>
-      <c r="G19">
-        <v>0.04466096212274806</v>
-      </c>
-      <c r="H19">
-        <v>-0.3315838515459857</v>
+        <v>0.2872004545402262</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1026,31 +885,25 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.153589845466726</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-0.0861284365669519</v>
       </c>
       <c r="D20">
-        <v>-0.1951278446762785</v>
+        <v>0.2806125412587761</v>
       </c>
       <c r="E20">
-        <v>0.03797994502939162</v>
+        <v>0.8969105327142159</v>
       </c>
       <c r="F20">
-        <v>-0.3381717648274358</v>
+        <v>-1.426955909564385</v>
       </c>
       <c r="G20">
-        <v>-0.3290314592345709</v>
+        <v>-0.9416113545463953</v>
       </c>
       <c r="H20">
-        <v>-0.8039584920179694</v>
-      </c>
-      <c r="I20">
-        <v>-0.08822145631394562</v>
-      </c>
-      <c r="J20">
-        <v>-0.1424713890534577</v>
+        <v>-0.2424713890534577</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1058,25 +911,22 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.1089994081093266</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.2713703732001704</v>
       </c>
       <c r="D21">
-        <v>-0.3474139328860415</v>
+        <v>1.023390896893986</v>
       </c>
       <c r="E21">
-        <v>-0.2025510950548011</v>
+        <v>-1.294144002138453</v>
       </c>
       <c r="F21">
-        <v>-0.6711465845920375</v>
+        <v>-0.9257156109861024</v>
       </c>
       <c r="G21">
-        <v>-0.07232571275365274</v>
-      </c>
-      <c r="H21">
-        <v>-0.1266951290417098</v>
+        <v>-0.2266951290417097</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1084,31 +934,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.6187843060862119</v>
       </c>
       <c r="C22">
-        <v>-0.0657707628501214</v>
+        <v>1.160171229098665</v>
       </c>
       <c r="D22">
-        <v>-0.6924114420431666</v>
+        <v>-1.315408859589582</v>
       </c>
       <c r="E22">
-        <v>-0.003113089272758884</v>
+        <v>-0.8565029875052086</v>
       </c>
       <c r="F22">
-        <v>-0.1943642528619194</v>
+        <v>-0.2943642528619194</v>
       </c>
       <c r="G22">
-        <v>-0.2044297991646857</v>
+        <v>-0.1128959321396792</v>
       </c>
       <c r="H22">
-        <v>-0.1118826500813668</v>
+        <v>-1.311882650081367</v>
       </c>
       <c r="I22">
-        <v>-0.2624551693718757</v>
+        <v>-1.914737720188838</v>
       </c>
       <c r="J22">
-        <v>0.295050419353828</v>
+        <v>1.626835031554307</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1116,28 +966,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.225941991948787</v>
       </c>
       <c r="C23">
-        <v>-0.5908816548757587</v>
+        <v>-1.213879072422174</v>
       </c>
       <c r="D23">
-        <v>0.08905248399717891</v>
+        <v>-0.7643374142352708</v>
       </c>
       <c r="E23">
-        <v>0.03670668615245343</v>
+        <v>-0.06329331384754655</v>
       </c>
       <c r="F23">
-        <v>-0.2559285853799764</v>
+        <v>-0.1643947183549699</v>
       </c>
       <c r="G23">
-        <v>-0.1363370417963352</v>
+        <v>-1.336337041796335</v>
       </c>
       <c r="H23">
-        <v>-0.2321041879108918</v>
+        <v>-1.884386738727855</v>
       </c>
       <c r="I23">
-        <v>0.3255029324097905</v>
+        <v>1.65728754461027</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1145,25 +995,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>-0.6229974175464152</v>
       </c>
       <c r="C24">
-        <v>-0.2635464714084179</v>
+        <v>-1.116936369640868</v>
       </c>
       <c r="D24">
-        <v>-0.3174096643303301</v>
+        <v>-0.4174096643303301</v>
       </c>
       <c r="E24">
-        <v>-0.1578411013127834</v>
+        <v>-0.06630723428777685</v>
       </c>
       <c r="F24">
-        <v>-0.04697273114095135</v>
+        <v>-1.246972731140951</v>
       </c>
       <c r="G24">
-        <v>-0.173177209467994</v>
+        <v>-1.825459760284957</v>
       </c>
       <c r="H24">
-        <v>0.3840461769599557</v>
+        <v>1.715830789160435</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1171,34 +1021,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>-0.8533898982324497</v>
       </c>
       <c r="C25">
-        <v>-0.2035356897605027</v>
+        <v>-0.3035356897605027</v>
       </c>
       <c r="D25">
-        <v>-0.1456141111929981</v>
+        <v>-0.05408024416799151</v>
       </c>
       <c r="E25">
-        <v>-0.03423022016876298</v>
+        <v>-1.234230220168763</v>
       </c>
       <c r="F25">
-        <v>-0.1604110959502947</v>
+        <v>-1.812693646767257</v>
       </c>
       <c r="G25">
-        <v>0.3968358541499555</v>
+        <v>1.728620466350435</v>
       </c>
       <c r="H25">
-        <v>-0.3786060204853214</v>
+        <v>0.232594415863673</v>
       </c>
       <c r="I25">
-        <v>6.592163551261635</v>
+        <v>-3.507836448738365</v>
       </c>
       <c r="J25">
-        <v>0.9867534939211566</v>
+        <v>4.814703264970361</v>
       </c>
       <c r="K25">
-        <v>-0.2871833298867301</v>
+        <v>2.560190469517366</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1206,31 +1056,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="C26">
-        <v>-0.1101615090027253</v>
+        <v>-0.01862764197771871</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="E26">
-        <v>-0.1264499850772893</v>
+        <v>-1.778732535894252</v>
       </c>
       <c r="F26">
-        <v>0.4305282615921698</v>
+        <v>1.762312873792649</v>
       </c>
       <c r="G26">
-        <v>-0.4709779412929294</v>
+        <v>0.1402224950560651</v>
       </c>
       <c r="H26">
-        <v>6.5</v>
+        <v>-3.6</v>
       </c>
       <c r="I26">
-        <v>0.8941836453765433</v>
+        <v>4.722133416425748</v>
       </c>
       <c r="J26">
-        <v>-0.3801590087334432</v>
+        <v>2.467214790670653</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1238,28 +1088,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.09153386702500654</v>
       </c>
       <c r="C27">
-        <v>0.007393188833222597</v>
+        <v>-1.192606811166777</v>
       </c>
       <c r="D27">
-        <v>-0.1458611110863757</v>
+        <v>-1.798143661903338</v>
       </c>
       <c r="E27">
-        <v>0.3980204345186423</v>
+        <v>1.729805046719121</v>
       </c>
       <c r="F27">
-        <v>-0.4923302669477466</v>
+        <v>0.1188701694012479</v>
       </c>
       <c r="G27">
-        <v>6.479589268123163</v>
+        <v>-3.620410731876836</v>
       </c>
       <c r="H27">
-        <v>0.8741837402067603</v>
+        <v>4.702133511255965</v>
       </c>
       <c r="I27">
-        <v>-0.3997488741433415</v>
+        <v>2.447624925260754</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1267,25 +1117,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="C28">
-        <v>-0.2264499850772893</v>
+        <v>-1.878732535894252</v>
       </c>
       <c r="D28">
-        <v>0.3305282615921698</v>
+        <v>1.662312873792649</v>
       </c>
       <c r="E28">
-        <v>-0.4709779412929294</v>
+        <v>0.1402224950560651</v>
       </c>
       <c r="F28">
-        <v>6.5</v>
+        <v>-3.6</v>
       </c>
       <c r="G28">
-        <v>0.8941836453765433</v>
+        <v>4.722133416425748</v>
       </c>
       <c r="H28">
-        <v>-0.3801590087334432</v>
+        <v>2.467214790670653</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1293,34 +1143,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-1.652282550816963</v>
       </c>
       <c r="C29">
-        <v>0.3374855548001535</v>
+        <v>1.669270167000633</v>
       </c>
       <c r="D29">
-        <v>-0.5093975908627328</v>
+        <v>0.1018028454862616</v>
       </c>
       <c r="E29">
-        <v>6.462025592298147</v>
+        <v>-3.637974407701853</v>
       </c>
       <c r="F29">
-        <v>0.8565249293622373</v>
+        <v>4.684474700411442</v>
       </c>
       <c r="G29">
-        <v>-0.4175023756029503</v>
+        <v>2.429871423801146</v>
       </c>
       <c r="H29">
-        <v>3.950036750260409</v>
+        <v>-1.515245869105485</v>
       </c>
       <c r="I29">
-        <v>-0.3668459010783351</v>
+        <v>-0.8214119330426115</v>
       </c>
       <c r="J29">
-        <v>-0.7743792553568478</v>
+        <v>0.04332001152579318</v>
       </c>
       <c r="K29">
-        <v>-0.01625290539564611</v>
+        <v>2.6575405892915</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1328,31 +1178,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1.331784612200479</v>
       </c>
       <c r="C30">
-        <v>-0.4919581662249612</v>
+        <v>0.1192422701240332</v>
       </c>
       <c r="D30">
-        <v>6.477711424162976</v>
+        <v>-3.622288575837024</v>
       </c>
       <c r="E30">
-        <v>0.8107372358460765</v>
+        <v>4.638687006895281</v>
       </c>
       <c r="F30">
-        <v>-0.4634930311038516</v>
+        <v>2.383880768300245</v>
       </c>
       <c r="G30">
-        <v>4.032106382785742</v>
+        <v>-1.433176236580152</v>
       </c>
       <c r="H30">
-        <v>-0.2846796621445549</v>
+        <v>-0.7392456941088312</v>
       </c>
       <c r="I30">
-        <v>-0.6921619699517403</v>
+        <v>0.1255372969309008</v>
       </c>
       <c r="J30">
-        <v>0.0660153665400714</v>
+        <v>2.739808861227217</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1360,28 +1210,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.6112004363489945</v>
       </c>
       <c r="C31">
-        <v>5.604893261331753</v>
+        <v>-4.495106738668246</v>
       </c>
       <c r="D31">
-        <v>0.7399069158335152</v>
+        <v>4.56785668688272</v>
       </c>
       <c r="E31">
-        <v>-0.4564686223017418</v>
+        <v>2.390905177102354</v>
       </c>
       <c r="F31">
-        <v>4.033160404690321</v>
+        <v>-1.432122214675573</v>
       </c>
       <c r="G31">
-        <v>-0.2836818898248197</v>
+        <v>-0.738247921789096</v>
       </c>
       <c r="H31">
-        <v>-0.6911649256557264</v>
+        <v>0.1265343412269147</v>
       </c>
       <c r="I31">
-        <v>0.06701168036133259</v>
+        <v>2.740805175048478</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1389,25 +1239,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-10.1</v>
       </c>
       <c r="C32">
-        <v>1.494183645376543</v>
+        <v>5.322133416425748</v>
       </c>
       <c r="D32">
-        <v>0.01984099126655681</v>
+        <v>2.867214790670653</v>
       </c>
       <c r="E32">
-        <v>4.529169871908772</v>
+        <v>-0.9361127474571219</v>
       </c>
       <c r="F32">
-        <v>0.1120587902277095</v>
+        <v>-0.3425072417365669</v>
       </c>
       <c r="G32">
-        <v>-0.595591413702294</v>
+        <v>0.2221078531803471</v>
       </c>
       <c r="H32">
-        <v>0.1624181905329181</v>
+        <v>2.836211685220064</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1265,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>3.827949771049204</v>
       </c>
       <c r="C33">
-        <v>-0.06365742005441177</v>
+        <v>2.783716379349684</v>
       </c>
       <c r="D33">
-        <v>4.504745164532054</v>
+        <v>-0.9605374548338403</v>
       </c>
       <c r="E33">
-        <v>0.1596514616199869</v>
+        <v>-0.2949145703442895</v>
       </c>
       <c r="F33">
-        <v>-0.556008838939817</v>
+        <v>0.261690427942824</v>
       </c>
       <c r="G33">
-        <v>0.2023335669485392</v>
+        <v>2.876127061635685</v>
       </c>
       <c r="H33">
-        <v>-1.542386228944665</v>
+        <v>0.5289581009094206</v>
       </c>
       <c r="I33">
-        <v>2.162181434227747</v>
+        <v>-4.057158778461869</v>
       </c>
       <c r="J33">
-        <v>0.8091041536638528</v>
+        <v>3.927819456393606</v>
       </c>
       <c r="K33">
-        <v>1.067282017698844</v>
+        <v>1.999301955212615</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1300,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>2.847373799404096</v>
       </c>
       <c r="C34">
-        <v>4.916453572242347</v>
+        <v>-0.5488290471235469</v>
       </c>
       <c r="D34">
-        <v>0.4395451106529575</v>
+        <v>-0.01502092131131882</v>
       </c>
       <c r="E34">
-        <v>-0.1927224101779355</v>
+        <v>0.6249768567047056</v>
       </c>
       <c r="F34">
-        <v>0.5530504441409931</v>
+        <v>3.226843938828139</v>
       </c>
       <c r="G34">
-        <v>-1.630622788226475</v>
+        <v>0.4407215416276103</v>
       </c>
       <c r="H34">
-        <v>2.06763419345468</v>
+        <v>-4.151706019234936</v>
       </c>
       <c r="I34">
-        <v>0.6531068836383298</v>
+        <v>3.771822186368083</v>
       </c>
       <c r="J34">
-        <v>0.9112173983457836</v>
+        <v>1.843237335859555</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1332,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-5.465282619365894</v>
       </c>
       <c r="C35">
-        <v>1.819022473497455</v>
+        <v>1.364456441533179</v>
       </c>
       <c r="D35">
-        <v>1.135876639790837</v>
+        <v>1.953575906673478</v>
       </c>
       <c r="E35">
-        <v>1.395839199581133</v>
+        <v>4.069632694268279</v>
       </c>
       <c r="F35">
-        <v>-1.3315631299416</v>
+        <v>0.7397811999124855</v>
       </c>
       <c r="G35">
-        <v>2.181274191952156</v>
+        <v>-4.03806602073746</v>
       </c>
       <c r="H35">
-        <v>0.6008796536118836</v>
+        <v>3.719594956341637</v>
       </c>
       <c r="I35">
-        <v>0.8592072812397475</v>
+        <v>1.791227218753519</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1361,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-0.4545660319642764</v>
       </c>
       <c r="C36">
-        <v>0.4836317325995629</v>
+        <v>1.301330999482204</v>
       </c>
       <c r="D36">
-        <v>0.873424357953837</v>
+        <v>3.547217852640983</v>
       </c>
       <c r="E36">
-        <v>-1.46961296782169</v>
+        <v>0.6017313620323961</v>
       </c>
       <c r="F36">
-        <v>2.131187030087418</v>
+        <v>-4.088153182602198</v>
       </c>
       <c r="G36">
-        <v>0.5988160287050163</v>
+        <v>3.71753133143477</v>
       </c>
       <c r="H36">
-        <v>0.8571423836947645</v>
+        <v>1.789162321208536</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1387,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.8176992668826411</v>
       </c>
       <c r="C37">
-        <v>1.154116780086639</v>
+        <v>3.827910274773785</v>
       </c>
       <c r="D37">
-        <v>-1.106329629475625</v>
+        <v>0.9650147003784606</v>
       </c>
       <c r="E37">
-        <v>2.265382956894655</v>
+        <v>-3.953957255794961</v>
       </c>
       <c r="F37">
-        <v>0.8354508795847977</v>
+        <v>3.954166182314551</v>
       </c>
       <c r="G37">
-        <v>1.094069338762054</v>
+        <v>2.026089276275826</v>
       </c>
       <c r="H37">
-        <v>-0.2171448297306994</v>
+        <v>3.274182240879796</v>
       </c>
       <c r="I37">
-        <v>1.505140922316741</v>
+        <v>-3.510809039932311</v>
       </c>
       <c r="J37">
-        <v>1.633092321941831</v>
+        <v>0.1469642976905022</v>
       </c>
       <c r="K37">
-        <v>1.606509143978002</v>
+        <v>-0.05119050438123901</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1422,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>2.673793494687146</v>
       </c>
       <c r="C38">
-        <v>-0.207773878883061</v>
+        <v>1.863570450971025</v>
       </c>
       <c r="D38">
-        <v>3.096277403638226</v>
+        <v>-3.12306280905139</v>
       </c>
       <c r="E38">
-        <v>1.504963895462822</v>
+        <v>4.623679198192576</v>
       </c>
       <c r="F38">
-        <v>1.384602791414338</v>
+        <v>2.316622728928109</v>
       </c>
       <c r="G38">
-        <v>-0.2221834501217472</v>
+        <v>3.269143620488748</v>
       </c>
       <c r="H38">
-        <v>1.508985009065838</v>
+        <v>-3.506964953183214</v>
       </c>
       <c r="I38">
-        <v>1.634553394770379</v>
+        <v>0.1484253705190497</v>
       </c>
       <c r="J38">
-        <v>1.608199566365897</v>
+        <v>-0.04950008199334371</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1454,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2.071344329854086</v>
       </c>
       <c r="C39">
-        <v>3.422204464062475</v>
+        <v>-2.797135748627141</v>
       </c>
       <c r="D39">
-        <v>1.490074766100576</v>
+        <v>4.60879006883033</v>
       </c>
       <c r="E39">
-        <v>1.51851092601666</v>
+        <v>2.450530863530431</v>
       </c>
       <c r="F39">
-        <v>0.2275519537145385</v>
+        <v>3.718879024325034</v>
       </c>
       <c r="G39">
-        <v>1.643566472399996</v>
+        <v>-3.372383489849056</v>
       </c>
       <c r="H39">
-        <v>1.814112581554866</v>
+        <v>0.3279845573035374</v>
       </c>
       <c r="I39">
-        <v>1.761430400469066</v>
+        <v>0.1037307521098257</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1483,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-6.219340212689616</v>
       </c>
       <c r="C40">
-        <v>0.8790171381180869</v>
+        <v>3.997732440847841</v>
       </c>
       <c r="D40">
-        <v>2.097747131449623</v>
+        <v>3.029767068963394</v>
       </c>
       <c r="E40">
-        <v>-0.217845575374028</v>
+        <v>3.273481495236467</v>
       </c>
       <c r="F40">
-        <v>1.383368696850638</v>
+        <v>-3.632581265398414</v>
       </c>
       <c r="G40">
-        <v>1.466524289085726</v>
+        <v>-0.0196037351656031</v>
       </c>
       <c r="H40">
-        <v>1.43942797406919</v>
+        <v>-0.218271674290051</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1509,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>3.118715302729754</v>
       </c>
       <c r="C41">
-        <v>-0.259195269160756</v>
+        <v>0.6728246683530155</v>
       </c>
       <c r="D41">
-        <v>-1.2018584031822</v>
+        <v>2.289468667428295</v>
       </c>
       <c r="E41">
-        <v>1.403009725392792</v>
+        <v>-3.61294023685626</v>
       </c>
       <c r="F41">
-        <v>1.756983065447855</v>
+        <v>0.2708550411965263</v>
       </c>
       <c r="G41">
-        <v>1.805486868973801</v>
+        <v>0.1477872206145606</v>
       </c>
       <c r="H41">
-        <v>1.200583964077154</v>
+        <v>2.75500849378372</v>
       </c>
       <c r="I41">
-        <v>2.220561011457078</v>
+        <v>-1.807530397535345</v>
       </c>
       <c r="J41">
-        <v>1.427085304787354</v>
+        <v>2.789769242556645</v>
       </c>
       <c r="K41">
-        <v>1.146455626059861</v>
+        <v>1.128680683462989</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1544,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.9320199375137714</v>
       </c>
       <c r="C42">
-        <v>-1.642720360861545</v>
+        <v>1.84860670974895</v>
       </c>
       <c r="D42">
-        <v>0.835036799769227</v>
+        <v>-4.180913162479825</v>
       </c>
       <c r="E42">
-        <v>1.508896604235105</v>
+        <v>0.02276857998377579</v>
       </c>
       <c r="F42">
-        <v>1.820612095396157</v>
+        <v>0.1629124470369164</v>
       </c>
       <c r="G42">
-        <v>0.941886803760525</v>
+        <v>2.496311333467091</v>
       </c>
       <c r="H42">
-        <v>2.109207233311437</v>
+        <v>-1.918884175680986</v>
       </c>
       <c r="I42">
-        <v>1.561688186172447</v>
+        <v>2.924372123941737</v>
       </c>
       <c r="J42">
-        <v>1.098492116761207</v>
+        <v>1.080717174164334</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1576,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>3.491327070610495</v>
       </c>
       <c r="C43">
-        <v>0.5116198667272722</v>
+        <v>-4.50433009552178</v>
       </c>
       <c r="D43">
-        <v>1.597530409314061</v>
+        <v>0.111402385062732</v>
       </c>
       <c r="E43">
-        <v>1.960172393886253</v>
+        <v>0.3024727455270125</v>
       </c>
       <c r="F43">
-        <v>1.046094095788433</v>
+        <v>2.600518625494999</v>
       </c>
       <c r="G43">
-        <v>2.445971279457623</v>
+        <v>-1.5821201295348</v>
       </c>
       <c r="H43">
-        <v>1.495513743212783</v>
+        <v>2.858197680982073</v>
       </c>
       <c r="I43">
-        <v>0.9271579299733759</v>
+        <v>0.9093829873765031</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1605,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-5.015949962249052</v>
       </c>
       <c r="C44">
-        <v>-0.229788198843409</v>
+        <v>-1.715916223094738</v>
       </c>
       <c r="D44">
-        <v>0.06714979275721999</v>
+        <v>-1.590549855602021</v>
       </c>
       <c r="E44">
-        <v>-0.5857497290950278</v>
+        <v>0.968674800611538</v>
       </c>
       <c r="F44">
-        <v>0.8450132098162721</v>
+        <v>-3.183078199176151</v>
       </c>
       <c r="G44">
-        <v>0.4829684280155817</v>
+        <v>1.845652365784872</v>
       </c>
       <c r="H44">
-        <v>0.3034903570390952</v>
+        <v>0.2857154144422225</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1631,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-1.486128024251329</v>
       </c>
       <c r="C45">
-        <v>0.3284740411911142</v>
+        <v>-1.329225607168127</v>
       </c>
       <c r="D45">
-        <v>-0.3559463566551528</v>
+        <v>1.198478173051413</v>
       </c>
       <c r="E45">
-        <v>1.047627574351054</v>
+        <v>-2.980463834641369</v>
       </c>
       <c r="F45">
-        <v>0.4750516351444247</v>
+        <v>1.837735572913715</v>
       </c>
       <c r="G45">
-        <v>0.4861868148458796</v>
+        <v>0.4684118722490069</v>
       </c>
       <c r="H45">
-        <v>0.4241991870095205</v>
+        <v>-0.8445852491279593</v>
       </c>
       <c r="I45">
-        <v>0.267369181340058</v>
+        <v>-0.2652103136504422</v>
       </c>
       <c r="J45">
-        <v>0.4868899006677907</v>
+        <v>2.416339654077732</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1663,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-1.657699648359241</v>
       </c>
       <c r="C46">
-        <v>-0.651032076387267</v>
+        <v>0.9033924533192987</v>
       </c>
       <c r="D46">
-        <v>1.165419832455569</v>
+        <v>-2.862671576536854</v>
       </c>
       <c r="E46">
-        <v>0.6974188722393109</v>
+        <v>2.060102810008601</v>
       </c>
       <c r="F46">
-        <v>0.6287347652362172</v>
+        <v>0.6109598226393445</v>
       </c>
       <c r="G46">
-        <v>0.4788335791136262</v>
+        <v>-0.7899508570238536</v>
       </c>
       <c r="H46">
-        <v>0.2735372284694221</v>
+        <v>-0.2590422665210781</v>
       </c>
       <c r="I46">
-        <v>0.4614189893722483</v>
+        <v>2.390868742782189</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1692,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1.554424529706566</v>
       </c>
       <c r="C47">
-        <v>0.8047182644471316</v>
+        <v>-3.223373144545291</v>
       </c>
       <c r="D47">
-        <v>0.5500564474061491</v>
+        <v>1.912740385175439</v>
       </c>
       <c r="E47">
-        <v>0.7115056929594061</v>
+        <v>0.6937307503625334</v>
       </c>
       <c r="F47">
-        <v>0.6488109544070824</v>
+        <v>-0.6199734817303975</v>
       </c>
       <c r="G47">
-        <v>0.5252293933557013</v>
+        <v>-0.007350101634798989</v>
       </c>
       <c r="H47">
-        <v>0.6878479855625415</v>
+        <v>2.617297738972483</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,22 +1718,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>-4.028091408992423</v>
       </c>
       <c r="C48">
-        <v>0.228757752386727</v>
+        <v>1.591441690156017</v>
       </c>
       <c r="D48">
-        <v>0.4688578188305143</v>
+        <v>0.4510828762336416</v>
       </c>
       <c r="E48">
-        <v>0.5301016377417085</v>
+        <v>-0.7386827983957713</v>
       </c>
       <c r="F48">
-        <v>0.4513002191871038</v>
+        <v>-0.08127927580339644</v>
       </c>
       <c r="G48">
-        <v>0.6501197416339863</v>
+        <v>2.579569495043927</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1891,19 +1741,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1.36268393776929</v>
       </c>
       <c r="C49">
-        <v>0.1762756142228596</v>
+        <v>0.1585006716259869</v>
       </c>
       <c r="D49">
-        <v>0.3287778612307193</v>
+        <v>-0.9400065749067605</v>
       </c>
       <c r="E49">
-        <v>0.2357703965038098</v>
+        <v>-0.2968090984866905</v>
       </c>
       <c r="F49">
-        <v>0.3809206932275089</v>
+        <v>2.31037044663745</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1911,16 +1761,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>-0.01777494259687268</v>
       </c>
       <c r="C50">
-        <v>0.1606122652309523</v>
+        <v>-1.108172170906528</v>
       </c>
       <c r="D50">
-        <v>0.1047426841100787</v>
+        <v>-0.4278368108804216</v>
       </c>
       <c r="E50">
-        <v>0.2837130529550933</v>
+        <v>2.213162806365034</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1928,13 +1778,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-1.26878443613748</v>
       </c>
       <c r="C51">
-        <v>0.04807424324599197</v>
+        <v>-0.4845052517445083</v>
       </c>
       <c r="D51">
-        <v>0.2817292138322358</v>
+        <v>2.211178967242177</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1942,10 +1792,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.5325794949905003</v>
       </c>
       <c r="C52">
-        <v>0.3115901559939829</v>
+        <v>2.241039909403924</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1953,7 +1803,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1.929449753409941</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,13 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.597742815479322</v>
+        <v>-0.3850031761599837</v>
       </c>
       <c r="C2">
-        <v>-3.638226581078521</v>
+        <v>-3.637992767367848</v>
       </c>
       <c r="D2">
-        <v>4.205275130507374</v>
+        <v>4.247482474306742</v>
+      </c>
+      <c r="E2">
+        <v>0.5287963669909459</v>
+      </c>
+      <c r="F2">
+        <v>2.080696071920813</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -614,16 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-9.072466590879515</v>
+        <v>-1.186757535494251</v>
       </c>
       <c r="C3">
-        <v>4.07473511353578</v>
+        <v>-0.08972846373728774</v>
       </c>
       <c r="D3">
-        <v>3.445473860180627</v>
+        <v>1.950156054949219</v>
       </c>
       <c r="E3">
-        <v>-0.5275052632325985</v>
+        <v>3.334320769827257</v>
+      </c>
+      <c r="F3">
+        <v>-0.3945900622561713</v>
+      </c>
+      <c r="G3">
+        <v>-0.7194527654605456</v>
+      </c>
+      <c r="H3">
+        <v>1.677727784779719</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,13 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>3.374955958561401</v>
+        <v>1.250376899974839</v>
       </c>
       <c r="C4">
-        <v>2.38219019836454</v>
+        <v>2.05881916642329</v>
       </c>
       <c r="D4">
-        <v>-1.081220374405973</v>
+        <v>-1.457873724072258</v>
+      </c>
+      <c r="E4">
+        <v>-1.461367504877672</v>
+      </c>
+      <c r="F4">
+        <v>1.124012673606344</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -645,16 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4.916887917677954</v>
+        <v>1.076823995241156</v>
       </c>
       <c r="C5">
-        <v>-1.76892604752409</v>
+        <v>-1.661631086675854</v>
       </c>
       <c r="D5">
-        <v>1.386265842011042</v>
+        <v>0.4363070004882275</v>
       </c>
       <c r="E5">
-        <v>-6.333726098490459</v>
+        <v>3.79729158995049</v>
+      </c>
+      <c r="F5">
+        <v>-6.422163934703491</v>
+      </c>
+      <c r="G5">
+        <v>0.9392135684766885</v>
+      </c>
+      <c r="H5">
+        <v>3.110374640151661</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,13 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1.494844826073561</v>
+        <v>0.7103882219387572</v>
       </c>
       <c r="C6">
-        <v>0.749771818182623</v>
+        <v>3.340006808518439</v>
       </c>
       <c r="D6">
-        <v>-6.799517243518864</v>
+        <v>-7.05865795853191</v>
+      </c>
+      <c r="E6">
+        <v>0.4161014331807422</v>
+      </c>
+      <c r="F6">
+        <v>2.644583495123257</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,16 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.211404385895307</v>
+        <v>-2.597025390819226</v>
       </c>
       <c r="C7">
-        <v>-5.47162544447049</v>
+        <v>1.826623326395136</v>
       </c>
       <c r="D7">
-        <v>1.798541678226129</v>
+        <v>3.97247529417163</v>
       </c>
       <c r="E7">
-        <v>-0.241830535826935</v>
+        <v>-6.387102650656231</v>
+      </c>
+      <c r="F7">
+        <v>-0.417442503991154</v>
+      </c>
+      <c r="G7">
+        <v>-0.3924743291503749</v>
+      </c>
+      <c r="H7">
+        <v>-2.812416893748534</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,13 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-6.576108822355025</v>
+        <v>2.867991916287095</v>
       </c>
       <c r="C8">
-        <v>2.717704714585622</v>
+        <v>-6.09279527236508</v>
       </c>
       <c r="D8">
-        <v>1.241805537018038</v>
+        <v>0.5017205323683385</v>
+      </c>
+      <c r="E8">
+        <v>1.341586757238233</v>
+      </c>
+      <c r="F8">
+        <v>-1.328780820903561</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,16 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.6089015178195898</v>
+        <v>-2.824885700036873</v>
       </c>
       <c r="C9">
-        <v>1.515790278543889</v>
+        <v>0.929563087718563</v>
       </c>
       <c r="D9">
-        <v>2.494576937690851</v>
+        <v>-1.05479607937771</v>
       </c>
       <c r="E9">
-        <v>-0.8855721111757617</v>
+        <v>2.651377519636</v>
+      </c>
+      <c r="F9">
+        <v>2.230979565952921</v>
+      </c>
+      <c r="G9">
+        <v>-0.7692983365578527</v>
+      </c>
+      <c r="H9">
+        <v>1.375457957462658</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,13 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1.624927601931461</v>
+        <v>-0.9456587559901384</v>
       </c>
       <c r="C10">
-        <v>2.159385394431581</v>
+        <v>1.900857809652507</v>
       </c>
       <c r="D10">
-        <v>-0.498200523893132</v>
+        <v>1.895788022693651</v>
+      </c>
+      <c r="E10">
+        <v>-0.5415009886057476</v>
+      </c>
+      <c r="F10">
+        <v>1.762829544745287</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -738,16 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>4.586134340748671</v>
+        <v>4.322536969010741</v>
       </c>
       <c r="C11">
-        <v>-0.8856747324432916</v>
+        <v>0.6232051056561261</v>
       </c>
       <c r="D11">
-        <v>2.630199927123314</v>
+        <v>1.375355336195128</v>
       </c>
       <c r="E11">
-        <v>-1.345078273456636</v>
+        <v>2.560626293424704</v>
+      </c>
+      <c r="F11">
+        <v>-1.368338582844274</v>
+      </c>
+      <c r="G11">
+        <v>-1.791700676850156</v>
+      </c>
+      <c r="H11">
+        <v>0.3704450688905183</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -755,13 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.7701737008746363</v>
+        <v>1.490856367763783</v>
       </c>
       <c r="C12">
-        <v>2.645913254152134</v>
+        <v>2.618530172334729</v>
       </c>
       <c r="D12">
-        <v>-1.352363556500791</v>
+        <v>-1.352625255815454</v>
+      </c>
+      <c r="E12">
+        <v>-1.799150772984931</v>
+      </c>
+      <c r="F12">
+        <v>0.3631597858463635</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -769,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>5.702676290077363</v>
+        <v>1.704137780109775</v>
       </c>
       <c r="C13">
-        <v>-0.7393403901740778</v>
+        <v>0.8635886506142469</v>
       </c>
       <c r="D13">
-        <v>-3.069527420322487</v>
+        <v>0.9761829521730765</v>
       </c>
       <c r="E13">
-        <v>4.523499095693225</v>
+        <v>-3.25152108266262</v>
+      </c>
+      <c r="F13">
+        <v>4.465845014663188</v>
+      </c>
+      <c r="G13">
+        <v>0.9767324629644349</v>
+      </c>
+      <c r="H13">
+        <v>-0.6968111631648097</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -786,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1.384799804008011</v>
+        <v>0.3307235383391429</v>
       </c>
       <c r="C14">
-        <v>-2.961827815535258</v>
+        <v>-2.958273755400825</v>
       </c>
       <c r="D14">
-        <v>4.618048777520215</v>
+        <v>4.573544619450416</v>
+      </c>
+      <c r="E14">
+        <v>1.070678755078703</v>
+      </c>
+      <c r="F14">
+        <v>-0.6022614813378195</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -800,16 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-6.087820875390207</v>
+        <v>1.447551559595468</v>
       </c>
       <c r="C15">
-        <v>4.509104179149247</v>
+        <v>0.8647845609599329</v>
       </c>
       <c r="D15">
-        <v>-0.408878388285103</v>
+        <v>-0.7112060797087876</v>
       </c>
       <c r="E15">
-        <v>2.261307915427508</v>
+        <v>-0.8136125548349042</v>
+      </c>
+      <c r="F15">
+        <v>2.21800943633977</v>
+      </c>
+      <c r="G15">
+        <v>1.285091552387001</v>
+      </c>
+      <c r="H15">
+        <v>-1.009823476456617</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -817,13 +922,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>3.922661407446001</v>
+        <v>-1.297648851412035</v>
       </c>
       <c r="C16">
-        <v>-0.5219977203055064</v>
+        <v>-0.9564169566168204</v>
       </c>
       <c r="D16">
-        <v>2.226174545449283</v>
+        <v>2.104890104319367</v>
+      </c>
+      <c r="E16">
+        <v>1.191912547745744</v>
+      </c>
+      <c r="F16">
+        <v>-1.044956846434843</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -831,16 +942,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1.266707086901576</v>
+        <v>1.360180737723297</v>
       </c>
       <c r="C17">
-        <v>1.549078933342784</v>
+        <v>0.4085372651491639</v>
       </c>
       <c r="D17">
-        <v>-1.463449866686304</v>
+        <v>-1.722052458541342</v>
       </c>
       <c r="E17">
-        <v>0.3417626104847358</v>
+        <v>-1.987866238238027</v>
+      </c>
+      <c r="F17">
+        <v>2.413727231920618</v>
+      </c>
+      <c r="G17">
+        <v>0.3385273650995941</v>
+      </c>
+      <c r="H17">
+        <v>-0.2029682420031236</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -848,19 +968,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>2.140830506670483</v>
+        <v>-1.130300885213643</v>
       </c>
       <c r="C18">
-        <v>-1.257004047973709</v>
+        <v>-1.669036822386374</v>
       </c>
       <c r="D18">
-        <v>0.2725884715833615</v>
+        <v>2.620173050633213</v>
       </c>
       <c r="E18">
-        <v>-0.1956546153620593</v>
+        <v>0.4647489196503187</v>
       </c>
       <c r="F18">
-        <v>0.1728969643163225</v>
+        <v>-0.2721423809044978</v>
+      </c>
+      <c r="G18">
+        <v>-1.672782902616945</v>
+      </c>
+      <c r="H18">
+        <v>0.133225882922531</v>
+      </c>
+      <c r="I18">
+        <v>1.099488893348251</v>
+      </c>
+      <c r="J18">
+        <v>1.02513052979252</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -868,16 +1000,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-2.60080745342924</v>
+        <v>1.276369645177681</v>
       </c>
       <c r="C19">
-        <v>0.4933780741577038</v>
+        <v>0.3703718232899149</v>
       </c>
       <c r="D19">
-        <v>-0.05422325775745662</v>
+        <v>-0.0513527783301555</v>
       </c>
       <c r="E19">
-        <v>0.2872004545402262</v>
+        <v>-1.530905341462443</v>
+      </c>
+      <c r="F19">
+        <v>0.2746572405271337</v>
+      </c>
+      <c r="G19">
+        <v>1.213896093912865</v>
+      </c>
+      <c r="H19">
+        <v>1.139434020016424</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -885,25 +1026,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1.153589845466726</v>
+        <v>0.6088589929788666</v>
       </c>
       <c r="C20">
-        <v>-0.0861284365669519</v>
+        <v>-1.562145573193078</v>
       </c>
       <c r="D20">
-        <v>0.2806125412587761</v>
+        <v>0.2427520617176384</v>
       </c>
       <c r="E20">
-        <v>0.8969105327142159</v>
+        <v>1.207215076819509</v>
       </c>
       <c r="F20">
-        <v>-1.426955909564385</v>
+        <v>1.132846106734974</v>
       </c>
       <c r="G20">
-        <v>-0.9416113545463953</v>
+        <v>-1.42728640096162</v>
       </c>
       <c r="H20">
-        <v>-0.2424713890534577</v>
+        <v>0.03598717831744125</v>
+      </c>
+      <c r="I20">
+        <v>-0.2428542957582863</v>
+      </c>
+      <c r="J20">
+        <v>-0.6267944630007347</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -911,22 +1058,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.1089994081093266</v>
+        <v>0.4378799063939169</v>
       </c>
       <c r="C21">
-        <v>0.2713703732001704</v>
+        <v>1.169235131790117</v>
       </c>
       <c r="D21">
-        <v>1.023390896893986</v>
+        <v>1.123603938676368</v>
       </c>
       <c r="E21">
-        <v>-1.294144002138453</v>
+        <v>-1.300806036781851</v>
       </c>
       <c r="F21">
-        <v>-0.9257156109861024</v>
+        <v>0.1687990857433732</v>
       </c>
       <c r="G21">
-        <v>-0.2266951290417097</v>
+        <v>-0.2269585521979934</v>
+      </c>
+      <c r="H21">
+        <v>-0.6110182029889868</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -934,31 +1084,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.6187843060862119</v>
+        <v>1.471017871562409</v>
       </c>
       <c r="C22">
-        <v>1.160171229098665</v>
+        <v>-1.164025704577171</v>
       </c>
       <c r="D22">
-        <v>-1.315408859589582</v>
+        <v>0.1475342282922441</v>
       </c>
       <c r="E22">
-        <v>-0.8565029875052086</v>
+        <v>-0.1577459287170996</v>
       </c>
       <c r="F22">
-        <v>-0.2943642528619194</v>
+        <v>-0.6786873268091964</v>
       </c>
       <c r="G22">
-        <v>-0.1128959321396792</v>
+        <v>-1.29426829016196</v>
       </c>
       <c r="H22">
-        <v>-1.311882650081367</v>
+        <v>1.614532096399159</v>
       </c>
       <c r="I22">
-        <v>-1.914737720188838</v>
+        <v>-0.6089855557249564</v>
       </c>
       <c r="J22">
-        <v>1.626835031554307</v>
+        <v>-0.03592789360209281</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -966,28 +1116,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>1.225941991948787</v>
+        <v>-1.09825494172705</v>
       </c>
       <c r="C23">
-        <v>-1.213879072422174</v>
+        <v>0.249064015459652</v>
       </c>
       <c r="D23">
-        <v>-0.7643374142352708</v>
+        <v>-0.06558035544716179</v>
       </c>
       <c r="E23">
-        <v>-0.06329331384754655</v>
+        <v>-0.4476163877948236</v>
       </c>
       <c r="F23">
-        <v>-0.1643947183549699</v>
+        <v>-1.345767076377251</v>
       </c>
       <c r="G23">
-        <v>-1.336337041796335</v>
+        <v>1.590077704684191</v>
       </c>
       <c r="H23">
-        <v>-1.884386738727855</v>
+        <v>-0.5786345742639725</v>
       </c>
       <c r="I23">
-        <v>1.65728754461027</v>
+        <v>-0.005475380546130282</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -995,25 +1145,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.6229974175464152</v>
+        <v>0.8399456703354107</v>
       </c>
       <c r="C24">
-        <v>-1.116936369640868</v>
+        <v>-0.4181793108527586</v>
       </c>
       <c r="D24">
-        <v>-0.4174096643303301</v>
+        <v>-0.8017327382776072</v>
       </c>
       <c r="E24">
-        <v>-0.06630723428777685</v>
+        <v>-1.247679592310058</v>
       </c>
       <c r="F24">
-        <v>-1.246972731140951</v>
+        <v>1.679442015339575</v>
       </c>
       <c r="G24">
-        <v>-1.825459760284957</v>
+        <v>-0.5197075958210746</v>
       </c>
       <c r="H24">
-        <v>1.715830789160435</v>
+        <v>0.05306786400403496</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1021,34 +1171,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.8533898982324497</v>
+        <v>-0.1546328394443407</v>
       </c>
       <c r="C25">
-        <v>-0.3035356897605027</v>
+        <v>-0.6878587637077798</v>
       </c>
       <c r="D25">
-        <v>-0.05408024416799151</v>
+        <v>-1.235452602190273</v>
       </c>
       <c r="E25">
-        <v>-1.234230220168763</v>
+        <v>1.692184526311763</v>
       </c>
       <c r="F25">
-        <v>-1.812693646767257</v>
+        <v>-0.5069414823033753</v>
       </c>
       <c r="G25">
-        <v>1.728620466350435</v>
+        <v>0.06585754119403475</v>
       </c>
       <c r="H25">
-        <v>0.232594415863673</v>
+        <v>-3.507628079192392</v>
       </c>
       <c r="I25">
-        <v>-3.507836448738365</v>
+        <v>4.814296967687382</v>
       </c>
       <c r="J25">
-        <v>4.814703264970361</v>
+        <v>0.9867534939211566</v>
       </c>
       <c r="K25">
-        <v>2.560190469517366</v>
+        <v>-0.2871833298867301</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1056,31 +1206,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.09999999999999998</v>
+        <v>-0.484323073947277</v>
       </c>
       <c r="C26">
-        <v>-0.01862764197771871</v>
+        <v>-1.2</v>
       </c>
       <c r="D26">
-        <v>-1.2</v>
+        <v>1.726414746480526</v>
       </c>
       <c r="E26">
-        <v>-1.778732535894252</v>
+        <v>-0.47298037143037</v>
       </c>
       <c r="F26">
-        <v>1.762312873792649</v>
+        <v>0.099549948636249</v>
       </c>
       <c r="G26">
-        <v>0.1402224950560651</v>
+        <v>-3.6</v>
       </c>
       <c r="H26">
-        <v>-3.6</v>
+        <v>4.722133416425748</v>
       </c>
       <c r="I26">
-        <v>4.722133416425748</v>
+        <v>0.8941836453765433</v>
       </c>
       <c r="J26">
-        <v>2.467214790670653</v>
+        <v>-0.3801590087334432</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1088,28 +1238,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.09153386702500654</v>
+        <v>-1.089838490997275</v>
       </c>
       <c r="C27">
-        <v>-1.192606811166777</v>
+        <v>1.733807935313749</v>
       </c>
       <c r="D27">
-        <v>-1.798143661903338</v>
+        <v>-0.4923914974394563</v>
       </c>
       <c r="E27">
-        <v>1.729805046719121</v>
+        <v>0.06704212156272149</v>
       </c>
       <c r="F27">
-        <v>0.1188701694012479</v>
+        <v>-3.621352325654817</v>
       </c>
       <c r="G27">
-        <v>-3.620410731876836</v>
+        <v>4.701722684548911</v>
       </c>
       <c r="H27">
-        <v>4.702133511255965</v>
+        <v>0.8741837402067603</v>
       </c>
       <c r="I27">
-        <v>2.447624925260754</v>
+        <v>-0.3997488741433415</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1117,25 +1267,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1.2</v>
+        <v>1.726414746480526</v>
       </c>
       <c r="C28">
-        <v>-1.878732535894252</v>
+        <v>-0.57298037143037</v>
       </c>
       <c r="D28">
-        <v>1.662312873792649</v>
+        <v>-0.0004500513637509806</v>
       </c>
       <c r="E28">
-        <v>0.1402224950560651</v>
+        <v>-3.6</v>
       </c>
       <c r="F28">
-        <v>-3.6</v>
+        <v>4.722133416425748</v>
       </c>
       <c r="G28">
-        <v>4.722133416425748</v>
+        <v>0.8941836453765433</v>
       </c>
       <c r="H28">
-        <v>2.467214790670653</v>
+        <v>-0.3801590087334432</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1143,34 +1293,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1.652282550816963</v>
+        <v>-0.3465303863530806</v>
       </c>
       <c r="C29">
-        <v>1.669270167000633</v>
+        <v>0.006507241844232681</v>
       </c>
       <c r="D29">
-        <v>0.1018028454862616</v>
+        <v>-3.638419649569803</v>
       </c>
       <c r="E29">
-        <v>-3.637974407701853</v>
+        <v>4.684159008723895</v>
       </c>
       <c r="F29">
-        <v>4.684474700411442</v>
+        <v>0.8565249293622373</v>
       </c>
       <c r="G29">
-        <v>2.429871423801146</v>
+        <v>-0.4175023756029503</v>
       </c>
       <c r="H29">
-        <v>-1.515245869105485</v>
+        <v>3.950036750260409</v>
       </c>
       <c r="I29">
-        <v>-0.8214119330426115</v>
+        <v>-0.3668459010783351</v>
       </c>
       <c r="J29">
-        <v>0.04332001152579318</v>
+        <v>-0.7743792553568478</v>
       </c>
       <c r="K29">
-        <v>2.6575405892915</v>
+        <v>-0.01625290539564611</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1178,31 +1328,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>1.331784612200479</v>
+        <v>-0.3309783129559208</v>
       </c>
       <c r="C30">
-        <v>0.1192422701240332</v>
+        <v>-3.620980224932032</v>
       </c>
       <c r="D30">
-        <v>-3.622288575837024</v>
+        <v>4.699844840588724</v>
       </c>
       <c r="E30">
-        <v>4.638687006895281</v>
+        <v>0.8107372358460765</v>
       </c>
       <c r="F30">
-        <v>2.383880768300245</v>
+        <v>-0.4634930311038516</v>
       </c>
       <c r="G30">
-        <v>-1.433176236580152</v>
+        <v>4.032106382785742</v>
       </c>
       <c r="H30">
-        <v>-0.7392456941088312</v>
+        <v>-0.2846796621445549</v>
       </c>
       <c r="I30">
-        <v>0.1255372969309008</v>
+        <v>-0.6921619699517403</v>
       </c>
       <c r="J30">
-        <v>2.739808861227217</v>
+        <v>0.0660153665400714</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1210,28 +1360,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.6112004363489945</v>
+        <v>-3.12902205870707</v>
       </c>
       <c r="C31">
-        <v>-4.495106738668246</v>
+        <v>3.827026677757501</v>
       </c>
       <c r="D31">
-        <v>4.56785668688272</v>
+        <v>0.7399069158335152</v>
       </c>
       <c r="E31">
-        <v>2.390905177102354</v>
+        <v>-0.4564686223017418</v>
       </c>
       <c r="F31">
-        <v>-1.432122214675573</v>
+        <v>4.033160404690321</v>
       </c>
       <c r="G31">
-        <v>-0.738247921789096</v>
+        <v>-0.2836818898248197</v>
       </c>
       <c r="H31">
-        <v>0.1265343412269147</v>
+        <v>-0.6911649256557264</v>
       </c>
       <c r="I31">
-        <v>2.740805175048478</v>
+        <v>0.06701168036133259</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1239,25 +1389,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-10.1</v>
+        <v>-1.777866583574252</v>
       </c>
       <c r="C32">
-        <v>5.322133416425748</v>
+        <v>1.494183645376543</v>
       </c>
       <c r="D32">
-        <v>2.867214790670653</v>
+        <v>0.01984099126655681</v>
       </c>
       <c r="E32">
-        <v>-0.9361127474571219</v>
+        <v>4.529169871908772</v>
       </c>
       <c r="F32">
-        <v>-0.3425072417365669</v>
+        <v>0.1120587902277095</v>
       </c>
       <c r="G32">
-        <v>0.2221078531803471</v>
+        <v>-0.595591413702294</v>
       </c>
       <c r="H32">
-        <v>2.836211685220064</v>
+        <v>0.1624181905329181</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1265,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>3.827949771049204</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>2.783716379349684</v>
+        <v>-0.06365742005441177</v>
       </c>
       <c r="D33">
-        <v>-0.9605374548338403</v>
+        <v>4.504745164532054</v>
       </c>
       <c r="E33">
-        <v>-0.2949145703442895</v>
+        <v>0.1596514616199869</v>
       </c>
       <c r="F33">
-        <v>0.261690427942824</v>
+        <v>-0.556008838939817</v>
       </c>
       <c r="G33">
-        <v>2.876127061635685</v>
+        <v>0.2023335669485392</v>
       </c>
       <c r="H33">
-        <v>0.5289581009094206</v>
+        <v>-1.542386228944665</v>
       </c>
       <c r="I33">
-        <v>-4.057158778461869</v>
+        <v>2.162181434227747</v>
       </c>
       <c r="J33">
-        <v>3.927819456393606</v>
+        <v>0.8091041536638528</v>
       </c>
       <c r="K33">
-        <v>1.999301955212615</v>
+        <v>1.067282017698844</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1300,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>2.847373799404096</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>-0.5488290471235469</v>
+        <v>4.916453572242347</v>
       </c>
       <c r="D34">
-        <v>-0.01502092131131882</v>
+        <v>0.4395451106529575</v>
       </c>
       <c r="E34">
-        <v>0.6249768567047056</v>
+        <v>-0.1927224101779355</v>
       </c>
       <c r="F34">
-        <v>3.226843938828139</v>
+        <v>0.5530504441409931</v>
       </c>
       <c r="G34">
-        <v>0.4407215416276103</v>
+        <v>-1.630622788226475</v>
       </c>
       <c r="H34">
-        <v>-4.151706019234936</v>
+        <v>2.06763419345468</v>
       </c>
       <c r="I34">
-        <v>3.771822186368083</v>
+        <v>0.6531068836383298</v>
       </c>
       <c r="J34">
-        <v>1.843237335859555</v>
+        <v>0.9112173983457836</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1332,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-5.465282619365894</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1.364456441533179</v>
+        <v>1.819022473497455</v>
       </c>
       <c r="D35">
-        <v>1.953575906673478</v>
+        <v>1.135876639790837</v>
       </c>
       <c r="E35">
-        <v>4.069632694268279</v>
+        <v>1.395839199581133</v>
       </c>
       <c r="F35">
-        <v>0.7397811999124855</v>
+        <v>-1.3315631299416</v>
       </c>
       <c r="G35">
-        <v>-4.03806602073746</v>
+        <v>2.181274191952156</v>
       </c>
       <c r="H35">
-        <v>3.719594956341637</v>
+        <v>0.6008796536118836</v>
       </c>
       <c r="I35">
-        <v>1.791227218753519</v>
+        <v>0.8592072812397475</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1361,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.4545660319642764</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1.301330999482204</v>
+        <v>0.4836317325995629</v>
       </c>
       <c r="D36">
-        <v>3.547217852640983</v>
+        <v>0.873424357953837</v>
       </c>
       <c r="E36">
-        <v>0.6017313620323961</v>
+        <v>-1.46961296782169</v>
       </c>
       <c r="F36">
-        <v>-4.088153182602198</v>
+        <v>2.131187030087418</v>
       </c>
       <c r="G36">
-        <v>3.71753133143477</v>
+        <v>0.5988160287050163</v>
       </c>
       <c r="H36">
-        <v>1.789162321208536</v>
+        <v>0.8571423836947645</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1387,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.8176992668826411</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>3.827910274773785</v>
+        <v>1.154116780086639</v>
       </c>
       <c r="D37">
-        <v>0.9650147003784606</v>
+        <v>-1.106329629475625</v>
       </c>
       <c r="E37">
-        <v>-3.953957255794961</v>
+        <v>2.265382956894655</v>
       </c>
       <c r="F37">
-        <v>3.954166182314551</v>
+        <v>0.8354508795847977</v>
       </c>
       <c r="G37">
-        <v>2.026089276275826</v>
+        <v>1.094069338762054</v>
       </c>
       <c r="H37">
-        <v>3.274182240879796</v>
+        <v>-0.2171448297306994</v>
       </c>
       <c r="I37">
-        <v>-3.510809039932311</v>
+        <v>1.505140922316741</v>
       </c>
       <c r="J37">
-        <v>0.1469642976905022</v>
+        <v>1.633092321941831</v>
       </c>
       <c r="K37">
-        <v>-0.05119050438123901</v>
+        <v>1.606509143978002</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1422,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>2.673793494687146</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1.863570450971025</v>
+        <v>-0.207773878883061</v>
       </c>
       <c r="D38">
-        <v>-3.12306280905139</v>
+        <v>3.096277403638226</v>
       </c>
       <c r="E38">
-        <v>4.623679198192576</v>
+        <v>1.504963895462822</v>
       </c>
       <c r="F38">
-        <v>2.316622728928109</v>
+        <v>1.384602791414338</v>
       </c>
       <c r="G38">
-        <v>3.269143620488748</v>
+        <v>-0.2221834501217472</v>
       </c>
       <c r="H38">
-        <v>-3.506964953183214</v>
+        <v>1.508985009065838</v>
       </c>
       <c r="I38">
-        <v>0.1484253705190497</v>
+        <v>1.634553394770379</v>
       </c>
       <c r="J38">
-        <v>-0.04950008199334371</v>
+        <v>1.608199566365897</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1454,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>2.071344329854086</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>-2.797135748627141</v>
+        <v>3.422204464062475</v>
       </c>
       <c r="D39">
-        <v>4.60879006883033</v>
+        <v>1.490074766100576</v>
       </c>
       <c r="E39">
-        <v>2.450530863530431</v>
+        <v>1.51851092601666</v>
       </c>
       <c r="F39">
-        <v>3.718879024325034</v>
+        <v>0.2275519537145385</v>
       </c>
       <c r="G39">
-        <v>-3.372383489849056</v>
+        <v>1.643566472399996</v>
       </c>
       <c r="H39">
-        <v>0.3279845573035374</v>
+        <v>1.814112581554866</v>
       </c>
       <c r="I39">
-        <v>0.1037307521098257</v>
+        <v>1.761430400469066</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1483,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-6.219340212689616</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>3.997732440847841</v>
+        <v>0.8790171381180869</v>
       </c>
       <c r="D40">
-        <v>3.029767068963394</v>
+        <v>2.097747131449623</v>
       </c>
       <c r="E40">
-        <v>3.273481495236467</v>
+        <v>-0.217845575374028</v>
       </c>
       <c r="F40">
-        <v>-3.632581265398414</v>
+        <v>1.383368696850638</v>
       </c>
       <c r="G40">
-        <v>-0.0196037351656031</v>
+        <v>1.466524289085726</v>
       </c>
       <c r="H40">
-        <v>-0.218271674290051</v>
+        <v>1.43942797406919</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1509,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>3.118715302729754</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.6728246683530155</v>
+        <v>-0.259195269160756</v>
       </c>
       <c r="D41">
-        <v>2.289468667428295</v>
+        <v>-1.2018584031822</v>
       </c>
       <c r="E41">
-        <v>-3.61294023685626</v>
+        <v>1.403009725392792</v>
       </c>
       <c r="F41">
-        <v>0.2708550411965263</v>
+        <v>1.756983065447855</v>
       </c>
       <c r="G41">
-        <v>0.1477872206145606</v>
+        <v>1.805486868973801</v>
       </c>
       <c r="H41">
-        <v>2.75500849378372</v>
+        <v>1.200583964077154</v>
       </c>
       <c r="I41">
-        <v>-1.807530397535345</v>
+        <v>2.220561011457078</v>
       </c>
       <c r="J41">
-        <v>2.789769242556645</v>
+        <v>1.427085304787354</v>
       </c>
       <c r="K41">
-        <v>1.128680683462989</v>
+        <v>1.146455626059861</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1544,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.9320199375137714</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>1.84860670974895</v>
+        <v>-1.642720360861545</v>
       </c>
       <c r="D42">
-        <v>-4.180913162479825</v>
+        <v>0.835036799769227</v>
       </c>
       <c r="E42">
-        <v>0.02276857998377579</v>
+        <v>1.508896604235105</v>
       </c>
       <c r="F42">
-        <v>0.1629124470369164</v>
+        <v>1.820612095396157</v>
       </c>
       <c r="G42">
-        <v>2.496311333467091</v>
+        <v>0.941886803760525</v>
       </c>
       <c r="H42">
-        <v>-1.918884175680986</v>
+        <v>2.109207233311437</v>
       </c>
       <c r="I42">
-        <v>2.924372123941737</v>
+        <v>1.561688186172447</v>
       </c>
       <c r="J42">
-        <v>1.080717174164334</v>
+        <v>1.098492116761207</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1576,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>3.491327070610495</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>-4.50433009552178</v>
+        <v>0.5116198667272722</v>
       </c>
       <c r="D43">
-        <v>0.111402385062732</v>
+        <v>1.597530409314061</v>
       </c>
       <c r="E43">
-        <v>0.3024727455270125</v>
+        <v>1.960172393886253</v>
       </c>
       <c r="F43">
-        <v>2.600518625494999</v>
+        <v>1.046094095788433</v>
       </c>
       <c r="G43">
-        <v>-1.5821201295348</v>
+        <v>2.445971279457623</v>
       </c>
       <c r="H43">
-        <v>2.858197680982073</v>
+        <v>1.495513743212783</v>
       </c>
       <c r="I43">
-        <v>0.9093829873765031</v>
+        <v>0.9271579299733759</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1605,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>-5.015949962249052</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>-1.715916223094738</v>
+        <v>-0.229788198843409</v>
       </c>
       <c r="D44">
-        <v>-1.590549855602021</v>
+        <v>0.06714979275721999</v>
       </c>
       <c r="E44">
-        <v>0.968674800611538</v>
+        <v>-0.5857497290950278</v>
       </c>
       <c r="F44">
-        <v>-3.183078199176151</v>
+        <v>0.8450132098162721</v>
       </c>
       <c r="G44">
-        <v>1.845652365784872</v>
+        <v>0.4829684280155817</v>
       </c>
       <c r="H44">
-        <v>0.2857154144422225</v>
+        <v>0.3034903570390952</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1631,31 +1781,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-1.486128024251329</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>-1.329225607168127</v>
+        <v>0.3284740411911142</v>
       </c>
       <c r="D45">
-        <v>1.198478173051413</v>
+        <v>-0.3559463566551528</v>
       </c>
       <c r="E45">
-        <v>-2.980463834641369</v>
+        <v>1.047627574351054</v>
       </c>
       <c r="F45">
-        <v>1.837735572913715</v>
+        <v>0.4750516351444247</v>
       </c>
       <c r="G45">
-        <v>0.4684118722490069</v>
+        <v>0.4861868148458796</v>
       </c>
       <c r="H45">
-        <v>-0.8445852491279593</v>
+        <v>0.4241991870095205</v>
       </c>
       <c r="I45">
-        <v>-0.2652103136504422</v>
+        <v>0.267369181340058</v>
       </c>
       <c r="J45">
-        <v>2.416339654077732</v>
+        <v>0.4868899006677907</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1663,28 +1813,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>-1.657699648359241</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.9033924533192987</v>
+        <v>-0.651032076387267</v>
       </c>
       <c r="D46">
-        <v>-2.862671576536854</v>
+        <v>1.165419832455569</v>
       </c>
       <c r="E46">
-        <v>2.060102810008601</v>
+        <v>0.6974188722393109</v>
       </c>
       <c r="F46">
-        <v>0.6109598226393445</v>
+        <v>0.6287347652362172</v>
       </c>
       <c r="G46">
-        <v>-0.7899508570238536</v>
+        <v>0.4788335791136262</v>
       </c>
       <c r="H46">
-        <v>-0.2590422665210781</v>
+        <v>0.2735372284694221</v>
       </c>
       <c r="I46">
-        <v>2.390868742782189</v>
+        <v>0.4614189893722483</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1692,25 +1842,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>1.554424529706566</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>-3.223373144545291</v>
+        <v>0.8047182644471316</v>
       </c>
       <c r="D47">
-        <v>1.912740385175439</v>
+        <v>0.5500564474061491</v>
       </c>
       <c r="E47">
-        <v>0.6937307503625334</v>
+        <v>0.7115056929594061</v>
       </c>
       <c r="F47">
-        <v>-0.6199734817303975</v>
+        <v>0.6488109544070824</v>
       </c>
       <c r="G47">
-        <v>-0.007350101634798989</v>
+        <v>0.5252293933557013</v>
       </c>
       <c r="H47">
-        <v>2.617297738972483</v>
+        <v>0.6878479855625415</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1718,22 +1868,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>-4.028091408992423</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>1.591441690156017</v>
+        <v>0.228757752386727</v>
       </c>
       <c r="D48">
-        <v>0.4510828762336416</v>
+        <v>0.4688578188305143</v>
       </c>
       <c r="E48">
-        <v>-0.7386827983957713</v>
+        <v>0.5301016377417085</v>
       </c>
       <c r="F48">
-        <v>-0.08127927580339644</v>
+        <v>0.4513002191871038</v>
       </c>
       <c r="G48">
-        <v>2.579569495043927</v>
+        <v>0.6501197416339863</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1741,19 +1891,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>1.36268393776929</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.1585006716259869</v>
+        <v>0.1762756142228596</v>
       </c>
       <c r="D49">
-        <v>-0.9400065749067605</v>
+        <v>0.3287778612307193</v>
       </c>
       <c r="E49">
-        <v>-0.2968090984866905</v>
+        <v>0.2357703965038098</v>
       </c>
       <c r="F49">
-        <v>2.31037044663745</v>
+        <v>0.3809206932275089</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1761,16 +1911,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.01777494259687268</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>-1.108172170906528</v>
+        <v>0.1606122652309523</v>
       </c>
       <c r="D50">
-        <v>-0.4278368108804216</v>
+        <v>0.1047426841100787</v>
       </c>
       <c r="E50">
-        <v>2.213162806365034</v>
+        <v>0.2837130529550933</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1778,13 +1928,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>-1.26878443613748</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>-0.4845052517445083</v>
+        <v>0.04807424324599197</v>
       </c>
       <c r="D51">
-        <v>2.211178967242177</v>
+        <v>0.2817292138322358</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1792,10 +1942,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>-0.5325794949905003</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>2.241039909403924</v>
+        <v>0.3115901559939829</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1803,7 +1953,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>1.929449753409941</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,19 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.3850031761599837</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-3.637992767367848</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.247482474306742</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5287963669909459</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.080696071920813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,25 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1.186757535494251</v>
+        <v>-5.434240009800993</v>
       </c>
       <c r="C3">
-        <v>-0.08972846373728774</v>
+        <v>-0.6185248307282336</v>
       </c>
       <c r="D3">
-        <v>1.950156054949219</v>
+        <v>-0.1305400169715938</v>
       </c>
       <c r="E3">
-        <v>3.334320769827257</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.3945900622561713</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>-0.7194527654605456</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.677727784779719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,19 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.250376899974839</v>
+        <v>-0.8303191719459733</v>
       </c>
       <c r="C4">
-        <v>2.05881916642329</v>
+        <v>-1.275501603403967</v>
       </c>
       <c r="D4">
-        <v>-1.457873724072258</v>
+        <v>-1.063283661816087</v>
       </c>
       <c r="E4">
-        <v>-1.461367504877672</v>
+        <v>-0.7419147394171262</v>
       </c>
       <c r="F4">
-        <v>1.124012673606344</v>
+        <v>-0.5537151111733749</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,25 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1.076823995241156</v>
+        <v>1.471414057497327</v>
       </c>
       <c r="C5">
-        <v>-1.661631086675854</v>
+        <v>-0.9421783212153088</v>
       </c>
       <c r="D5">
-        <v>0.4363070004882275</v>
+        <v>-1.241420784291492</v>
       </c>
       <c r="E5">
-        <v>3.79729158995049</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-6.422163934703491</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.9392135684766885</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3.110374640151661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,19 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.7103882219387572</v>
+        <v>-0.9673395628409622</v>
       </c>
       <c r="C6">
-        <v>3.340006808518439</v>
+        <v>-0.4572847814320511</v>
       </c>
       <c r="D6">
-        <v>-7.05865795853191</v>
+        <v>-0.6364940238284191</v>
       </c>
       <c r="E6">
-        <v>0.4161014331807422</v>
+        <v>-0.5231121352959462</v>
       </c>
       <c r="F6">
-        <v>2.644583495123257</v>
+        <v>-0.4657911450284047</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-2.597025390819226</v>
+        <v>3.825138543884265</v>
       </c>
       <c r="C7">
-        <v>1.826623326395136</v>
+        <v>0.8874097579184477</v>
       </c>
       <c r="D7">
-        <v>3.97247529417163</v>
+        <v>0.8621006540199687</v>
       </c>
       <c r="E7">
-        <v>-6.387102650656231</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.417442503991154</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.3924743291503749</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-2.812416893748534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,19 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2.867991916287095</v>
+        <v>-0.2423827238645657</v>
       </c>
       <c r="C8">
-        <v>-6.09279527236508</v>
+        <v>0.2943073782911512</v>
       </c>
       <c r="D8">
-        <v>0.5017205323683385</v>
+        <v>0.9191630363594925</v>
       </c>
       <c r="E8">
-        <v>1.341586757238233</v>
+        <v>1.734061086388607</v>
       </c>
       <c r="F8">
-        <v>-1.328780820903561</v>
+        <v>1.483636072844973</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,25 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-2.824885700036873</v>
+        <v>-2.407443196045719</v>
       </c>
       <c r="C9">
-        <v>0.929563087718563</v>
+        <v>1.322037416868938</v>
       </c>
       <c r="D9">
-        <v>-1.05479607937771</v>
+        <v>1.757620814370824</v>
       </c>
       <c r="E9">
-        <v>2.651377519636</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2.230979565952921</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>-0.7692983365578527</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1.375457957462658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,19 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.9456587559901384</v>
+        <v>1.866758137758396</v>
       </c>
       <c r="C10">
-        <v>1.900857809652507</v>
+        <v>-0.7505197099834933</v>
       </c>
       <c r="D10">
-        <v>1.895788022693651</v>
+        <v>-0.3351915432592705</v>
       </c>
       <c r="E10">
-        <v>-0.5415009886057476</v>
+        <v>0.2277973479521052</v>
       </c>
       <c r="F10">
-        <v>1.762829544745287</v>
+        <v>0.3873715872826298</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,25 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>4.322536969010741</v>
+        <v>2.09155740305782</v>
       </c>
       <c r="C11">
-        <v>0.6232051056561261</v>
+        <v>1.392503442213979</v>
       </c>
       <c r="D11">
-        <v>1.375355336195128</v>
+        <v>-0.0001026212675299121</v>
       </c>
       <c r="E11">
-        <v>2.560626293424704</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-1.368338582844274</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>-1.791700676850156</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.3704450688905183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1.490856367763783</v>
+        <v>0.1153984103011254</v>
       </c>
       <c r="C12">
-        <v>2.618530172334729</v>
+        <v>0.05790387891002524</v>
       </c>
       <c r="D12">
-        <v>-1.352625255815454</v>
+        <v>0.01571332702881989</v>
       </c>
       <c r="E12">
-        <v>-1.799150772984931</v>
+        <v>-0.007450096134775208</v>
       </c>
       <c r="F12">
-        <v>0.3631597858463635</v>
+        <v>-0.007285283044154767</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,25 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1.704137780109775</v>
+        <v>3.072476362954049</v>
       </c>
       <c r="C13">
-        <v>0.8635886506142469</v>
+        <v>2.655289327464402</v>
       </c>
       <c r="D13">
-        <v>0.9761829521730765</v>
+        <v>0.6057378832825582</v>
       </c>
       <c r="E13">
-        <v>-3.25152108266262</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>4.465845014663188</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.9767324629644349</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-0.6968111631648097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,19 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.3307235383391429</v>
+        <v>-0.03972153055137539</v>
       </c>
       <c r="C14">
-        <v>-2.958273755400825</v>
+        <v>0.2932473272617955</v>
       </c>
       <c r="D14">
-        <v>4.573544619450416</v>
+        <v>0.1076996047872285</v>
       </c>
       <c r="E14">
-        <v>1.070678755078703</v>
+        <v>0.09394629211426775</v>
       </c>
       <c r="F14">
-        <v>-0.6022614813378195</v>
+        <v>0.0945496818269902</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,25 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1.447551559595468</v>
+        <v>-3.01829345506772</v>
       </c>
       <c r="C15">
-        <v>0.8647845609599329</v>
+        <v>-0.111947902004502</v>
       </c>
       <c r="D15">
-        <v>-0.7112060797087876</v>
+        <v>-0.01439491654397784</v>
       </c>
       <c r="E15">
-        <v>-0.8136125548349042</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2.21800943633977</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1.285091552387001</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-1.009823476456617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -922,19 +922,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1.297648851412035</v>
+        <v>-0.6008376882472248</v>
       </c>
       <c r="C16">
-        <v>-0.9564169566168204</v>
+        <v>-0.1428044017819161</v>
       </c>
       <c r="D16">
-        <v>2.104890104319367</v>
+        <v>-0.1131193320204034</v>
       </c>
       <c r="E16">
-        <v>1.191912547745744</v>
+        <v>-0.09317900464125728</v>
       </c>
       <c r="F16">
-        <v>-1.044956846434843</v>
+        <v>-0.03513336997822591</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -942,25 +942,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1.360180737723297</v>
+        <v>-0.8578286986164727</v>
       </c>
       <c r="C17">
-        <v>0.4085372651491639</v>
+        <v>-0.8765542872378376</v>
       </c>
       <c r="D17">
-        <v>-1.722052458541342</v>
+        <v>-0.7122289820847243</v>
       </c>
       <c r="E17">
-        <v>-1.987866238238027</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2.413727231920618</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3385273650995941</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>-0.2029682420031236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -968,31 +968,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1.130300885213643</v>
+        <v>-0.1204774087570257</v>
       </c>
       <c r="C18">
-        <v>-1.669036822386374</v>
+        <v>0.3188294158516527</v>
       </c>
       <c r="D18">
-        <v>2.620173050633213</v>
+        <v>0.206445818712595</v>
       </c>
       <c r="E18">
-        <v>0.4647489196503187</v>
+        <v>0.1262215545507246</v>
       </c>
       <c r="F18">
-        <v>-0.2721423809044978</v>
+        <v>-0.06917413890137425</v>
       </c>
       <c r="G18">
-        <v>-1.672782902616945</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.133225882922531</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.099488893348251</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1.02513052979252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1000,25 +1000,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1.276369645177681</v>
+        <v>-1.137357586742937</v>
       </c>
       <c r="C19">
-        <v>0.3703718232899149</v>
+        <v>0.03184445819032078</v>
       </c>
       <c r="D19">
-        <v>-0.0513527783301555</v>
+        <v>0.1516154636729681</v>
       </c>
       <c r="E19">
-        <v>-1.530905341462443</v>
+        <v>0.1418775611545016</v>
       </c>
       <c r="F19">
-        <v>0.2746572405271337</v>
+        <v>0.1414313576046027</v>
       </c>
       <c r="G19">
-        <v>1.213896093912865</v>
+        <v>0.1144072005646137</v>
       </c>
       <c r="H19">
-        <v>1.139434020016424</v>
+        <v>0.1143034902239037</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1026,31 +1026,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.6088589929788666</v>
+        <v>0.8118272349819902</v>
       </c>
       <c r="C20">
-        <v>-1.562145573193078</v>
+        <v>0.1106373294238665</v>
       </c>
       <c r="D20">
-        <v>0.2427520617176384</v>
+        <v>0.1095261787951074</v>
       </c>
       <c r="E20">
-        <v>1.207215076819509</v>
+        <v>0.1077261834712573</v>
       </c>
       <c r="F20">
-        <v>1.132846106734974</v>
+        <v>0.1077155769424536</v>
       </c>
       <c r="G20">
-        <v>-1.42728640096162</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.03598717831744125</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>-0.2428542957582863</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>-0.6267944630007347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1058,25 +1058,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.4378799063939169</v>
+        <v>0.3046540234713859</v>
       </c>
       <c r="C21">
-        <v>1.169235131790117</v>
+        <v>0.06974623844186567</v>
       </c>
       <c r="D21">
-        <v>1.123603938676368</v>
+        <v>0.09847340888384792</v>
       </c>
       <c r="E21">
-        <v>-1.300806036781851</v>
+        <v>0.1264803641797698</v>
       </c>
       <c r="F21">
-        <v>0.1687990857433732</v>
+        <v>0.132811907425932</v>
       </c>
       <c r="G21">
-        <v>-0.2269585521979934</v>
+        <v>0.01589574356029289</v>
       </c>
       <c r="H21">
-        <v>-0.6110182029889868</v>
+        <v>0.01577626001174792</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1084,31 +1084,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1.471017871562409</v>
+        <v>0.4458873417698894</v>
       </c>
       <c r="C22">
-        <v>-1.164025704577171</v>
+        <v>0.2632606963844495</v>
       </c>
       <c r="D22">
-        <v>0.1475342282922441</v>
+        <v>0.1115470499748028</v>
       </c>
       <c r="E22">
-        <v>-0.1577459287170996</v>
+        <v>0.08510836704118674</v>
       </c>
       <c r="F22">
-        <v>-0.6786873268091964</v>
+        <v>-0.0518928638084617</v>
       </c>
       <c r="G22">
-        <v>-1.29426829016196</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1.614532096399159</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>-0.6089855557249564</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>-0.03592789360209281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1116,28 +1116,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1.09825494172705</v>
+        <v>0.3290314592345709</v>
       </c>
       <c r="C23">
-        <v>0.249064015459652</v>
+        <v>0.2130768371422107</v>
       </c>
       <c r="D23">
-        <v>-0.06558035544716179</v>
+        <v>0.1772739403111245</v>
       </c>
       <c r="E23">
-        <v>-0.4476163877948236</v>
+        <v>0.1791780752059111</v>
       </c>
       <c r="F23">
-        <v>-1.345767076377251</v>
+        <v>-0.05149878621529069</v>
       </c>
       <c r="G23">
-        <v>1.590077704684191</v>
+        <v>-0.02445439171496844</v>
       </c>
       <c r="H23">
-        <v>-0.5786345742639725</v>
+        <v>0.03035098146098392</v>
       </c>
       <c r="I23">
-        <v>-0.005475380546130282</v>
+        <v>0.03045251305596253</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1145,25 +1145,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.8399456703354107</v>
+        <v>0.8039584920179694</v>
       </c>
       <c r="C24">
-        <v>-0.4181793108527586</v>
+        <v>-0.1753250150944723</v>
       </c>
       <c r="D24">
-        <v>-0.8017327382776072</v>
+        <v>-0.1749382752768724</v>
       </c>
       <c r="E24">
-        <v>-1.247679592310058</v>
+        <v>0.04658869785190234</v>
       </c>
       <c r="F24">
-        <v>1.679442015339575</v>
+        <v>0.06490991894041542</v>
       </c>
       <c r="G24">
-        <v>-0.5197075958210746</v>
+        <v>0.08927795990388177</v>
       </c>
       <c r="H24">
-        <v>0.05306786400403496</v>
+        <v>0.08899575760612777</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1171,34 +1171,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.1546328394443407</v>
+        <v>0.08822145631394562</v>
       </c>
       <c r="C25">
-        <v>-0.6878587637077798</v>
+        <v>-0.06106430070704505</v>
       </c>
       <c r="D25">
-        <v>-1.235452602190273</v>
+        <v>0.05881568797168768</v>
       </c>
       <c r="E25">
-        <v>1.692184526311763</v>
+        <v>0.07765242991260379</v>
       </c>
       <c r="F25">
-        <v>-0.5069414823033753</v>
+        <v>0.1020440734215811</v>
       </c>
       <c r="G25">
-        <v>0.06585754119403475</v>
+        <v>0.1017854347961276</v>
       </c>
       <c r="H25">
-        <v>-3.507628079192392</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4.814296967687382</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9867534939211566</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>-0.2871833298867301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1206,31 +1206,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.484323073947277</v>
+        <v>0.1424713890534577</v>
       </c>
       <c r="C26">
-        <v>-1.2</v>
+        <v>0.09426829016196048</v>
       </c>
       <c r="D26">
-        <v>1.726414746480526</v>
+        <v>0.1118826500813668</v>
       </c>
       <c r="E26">
-        <v>-0.47298037143037</v>
+        <v>0.1360051842945864</v>
       </c>
       <c r="F26">
-        <v>0.099549948636249</v>
+        <v>0.1354778422383418</v>
       </c>
       <c r="G26">
-        <v>-3.6</v>
+        <v>-0.09237192080760792</v>
       </c>
       <c r="H26">
-        <v>4.722133416425748</v>
+        <v>-0.09216355126163478</v>
       </c>
       <c r="I26">
-        <v>0.8941836453765433</v>
+        <v>-0.09256984854461336</v>
       </c>
       <c r="J26">
-        <v>-0.3801590087334432</v>
+        <v>-0.09297567884671309</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1238,28 +1238,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1.089838490997275</v>
+        <v>0.2044297991646857</v>
       </c>
       <c r="C27">
-        <v>1.733807935313749</v>
+        <v>0.1192758389145894</v>
       </c>
       <c r="D27">
-        <v>-0.4923914974394563</v>
+        <v>0.1165940582855001</v>
       </c>
       <c r="E27">
-        <v>0.06704212156272149</v>
+        <v>0.1029700151648143</v>
       </c>
       <c r="F27">
-        <v>-3.621352325654817</v>
+        <v>-0.1137242464624251</v>
       </c>
       <c r="G27">
-        <v>4.701722684548911</v>
+        <v>-0.1125742831384713</v>
       </c>
       <c r="H27">
-        <v>0.8741837402067603</v>
+        <v>-0.1125697537143964</v>
       </c>
       <c r="I27">
-        <v>-0.3997488741433415</v>
+        <v>-0.1125655442566114</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1267,25 +1267,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>1.726414746480526</v>
+        <v>0.1118826500813668</v>
       </c>
       <c r="C28">
-        <v>-0.57298037143037</v>
+        <v>0.03600518429458643</v>
       </c>
       <c r="D28">
-        <v>-0.0004500513637509806</v>
+        <v>0.03547784223834183</v>
       </c>
       <c r="E28">
-        <v>-3.6</v>
+        <v>-0.09237192080760792</v>
       </c>
       <c r="F28">
-        <v>4.722133416425748</v>
+        <v>-0.09216355126163478</v>
       </c>
       <c r="G28">
-        <v>0.8941836453765433</v>
+        <v>-0.09256984854461336</v>
       </c>
       <c r="H28">
-        <v>-0.3801590087334432</v>
+        <v>-0.09297567884671309</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1293,34 +1293,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.3465303863530806</v>
+        <v>0.2624551693718757</v>
       </c>
       <c r="C29">
-        <v>0.006507241844232681</v>
+        <v>0.04243513544632549</v>
       </c>
       <c r="D29">
-        <v>-3.638419649569803</v>
+        <v>-0.1307915703774114</v>
       </c>
       <c r="E29">
-        <v>4.684159008723895</v>
+        <v>-0.1301379589634877</v>
       </c>
       <c r="F29">
-        <v>0.8565249293622373</v>
+        <v>-0.1302285645589193</v>
       </c>
       <c r="G29">
-        <v>-0.4175023756029503</v>
+        <v>-0.1303190457162202</v>
       </c>
       <c r="H29">
-        <v>3.950036750260409</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>-0.3668459010783351</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>-0.7743792553568478</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>-0.01625290539564611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1328,31 +1328,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.3309783129559208</v>
+        <v>-0.295050419353828</v>
       </c>
       <c r="C30">
-        <v>-3.620980224932032</v>
+        <v>-0.1133521457396398</v>
       </c>
       <c r="D30">
-        <v>4.699844840588724</v>
+        <v>-0.1144521270986587</v>
       </c>
       <c r="E30">
-        <v>0.8107372358460765</v>
+        <v>-0.1760162580750801</v>
       </c>
       <c r="F30">
-        <v>-0.4634930311038516</v>
+        <v>-0.1763097012171215</v>
       </c>
       <c r="G30">
-        <v>4.032106382785742</v>
+        <v>0.08206963252533228</v>
       </c>
       <c r="H30">
-        <v>-0.2846796621445549</v>
+        <v>0.08216623893378028</v>
       </c>
       <c r="I30">
-        <v>-0.6921619699517403</v>
+        <v>0.08221728540510759</v>
       </c>
       <c r="J30">
-        <v>0.0660153665400714</v>
+        <v>0.08226827193571751</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1360,28 +1360,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-3.12902205870707</v>
+        <v>0.3786060204853214</v>
       </c>
       <c r="C31">
-        <v>3.827026677757501</v>
+        <v>-0.9872702899298815</v>
       </c>
       <c r="D31">
-        <v>0.7399069158335152</v>
+        <v>-0.2468465780876415</v>
       </c>
       <c r="E31">
-        <v>-0.4564686223017418</v>
+        <v>-0.1692852924150117</v>
       </c>
       <c r="F31">
-        <v>4.033160404690321</v>
+        <v>0.0831236544299116</v>
       </c>
       <c r="G31">
-        <v>-0.2836818898248197</v>
+        <v>0.08316401125351547</v>
       </c>
       <c r="H31">
-        <v>-0.6911649256557264</v>
+        <v>0.08321432970112153</v>
       </c>
       <c r="I31">
-        <v>0.06701168036133259</v>
+        <v>0.0832645857569787</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1389,25 +1389,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1.777866583574252</v>
+        <v>-6.592163551261635</v>
       </c>
       <c r="C32">
-        <v>1.494183645376543</v>
+        <v>0.5074301514553867</v>
       </c>
       <c r="D32">
-        <v>0.01984099126655681</v>
+        <v>0.3070243211532869</v>
       </c>
       <c r="E32">
-        <v>4.529169871908772</v>
+        <v>0.5791331216483627</v>
       </c>
       <c r="F32">
-        <v>0.1120587902277095</v>
+        <v>0.4789046913060446</v>
       </c>
       <c r="G32">
-        <v>-0.595591413702294</v>
+        <v>0.1787878416545539</v>
       </c>
       <c r="H32">
-        <v>0.1624181905329181</v>
+        <v>0.1786710959285642</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-0.9867534939211566</v>
       </c>
       <c r="C33">
-        <v>-0.06365742005441177</v>
+        <v>0.2235259098323183</v>
       </c>
       <c r="D33">
-        <v>4.504745164532054</v>
+        <v>0.5547084142716443</v>
       </c>
       <c r="E33">
-        <v>0.1596514616199869</v>
+        <v>0.526497362698322</v>
       </c>
       <c r="F33">
-        <v>-0.556008838939817</v>
+        <v>0.2183704164170309</v>
       </c>
       <c r="G33">
-        <v>0.2023335669485392</v>
+        <v>0.2185864723441853</v>
       </c>
       <c r="H33">
-        <v>-1.542386228944665</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2.162181434227747</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0.8091041536638528</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>1.067282017698844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>0.2871833298867301</v>
       </c>
       <c r="C34">
-        <v>4.916453572242347</v>
+        <v>0.9664168219819378</v>
       </c>
       <c r="D34">
-        <v>0.4395451106529575</v>
+        <v>0.8063910117312927</v>
       </c>
       <c r="E34">
-        <v>-0.1927224101779355</v>
+        <v>0.5816568451789124</v>
       </c>
       <c r="F34">
-        <v>0.5530504441409931</v>
+        <v>0.5693033495366393</v>
       </c>
       <c r="G34">
-        <v>-1.630622788226475</v>
+        <v>-0.08823655928181035</v>
       </c>
       <c r="H34">
-        <v>2.06763419345468</v>
+        <v>-0.09454724077306764</v>
       </c>
       <c r="I34">
-        <v>0.6531068836383298</v>
+        <v>-0.1559972700255229</v>
       </c>
       <c r="J34">
-        <v>0.9112173983457836</v>
+        <v>-0.1560646193530602</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-3.950036750260409</v>
       </c>
       <c r="C35">
-        <v>1.819022473497455</v>
+        <v>2.185868374575791</v>
       </c>
       <c r="D35">
-        <v>1.135876639790837</v>
+        <v>1.910255895147685</v>
       </c>
       <c r="E35">
-        <v>1.395839199581133</v>
+        <v>1.412092104976779</v>
       </c>
       <c r="F35">
-        <v>-1.3315631299416</v>
+        <v>0.2108230990030648</v>
       </c>
       <c r="G35">
-        <v>2.181274191952156</v>
+        <v>0.01909275772440822</v>
       </c>
       <c r="H35">
-        <v>0.6008796536118836</v>
+        <v>-0.2082245000519692</v>
       </c>
       <c r="I35">
-        <v>0.8592072812397475</v>
+        <v>-0.2080747364590962</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.3668459010783351</v>
       </c>
       <c r="C36">
-        <v>0.4836317325995629</v>
+        <v>1.258010987956411</v>
       </c>
       <c r="D36">
-        <v>0.873424357953837</v>
+        <v>0.8896772633494832</v>
       </c>
       <c r="E36">
-        <v>-1.46961296782169</v>
+        <v>0.07277326112297544</v>
       </c>
       <c r="F36">
-        <v>2.131187030087418</v>
+        <v>-0.03099440414032983</v>
       </c>
       <c r="G36">
-        <v>0.5988160287050163</v>
+        <v>-0.2102881249588365</v>
       </c>
       <c r="H36">
-        <v>0.8571423836947645</v>
+        <v>-0.2101396340040793</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.7743792553568478</v>
       </c>
       <c r="C37">
-        <v>1.154116780086639</v>
+        <v>1.170369685482285</v>
       </c>
       <c r="D37">
-        <v>-1.106329629475625</v>
+        <v>0.43605659946904</v>
       </c>
       <c r="E37">
-        <v>2.265382956894655</v>
+        <v>0.1032015226669074</v>
       </c>
       <c r="F37">
-        <v>0.8354508795847977</v>
+        <v>0.02634672592094489</v>
       </c>
       <c r="G37">
-        <v>1.094069338762054</v>
+        <v>0.02678732106321036</v>
       </c>
       <c r="H37">
-        <v>-0.2171448297306994</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1.505140922316741</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1.633092321941831</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1.606509143978002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.01625290539564611</v>
       </c>
       <c r="C38">
-        <v>-0.207773878883061</v>
+        <v>1.334612350061604</v>
       </c>
       <c r="D38">
-        <v>3.096277403638226</v>
+        <v>0.9340959694104785</v>
       </c>
       <c r="E38">
-        <v>1.504963895462822</v>
+        <v>0.6958597417989696</v>
       </c>
       <c r="F38">
-        <v>1.384602791414338</v>
+        <v>0.3173207737154939</v>
       </c>
       <c r="G38">
-        <v>-0.2221834501217472</v>
+        <v>-0.005038620391047799</v>
       </c>
       <c r="H38">
-        <v>1.508985009065838</v>
+        <v>0.003844086749097753</v>
       </c>
       <c r="I38">
-        <v>1.634553394770379</v>
+        <v>0.001461072828547461</v>
       </c>
       <c r="J38">
-        <v>1.608199566365897</v>
+        <v>0.001690422387895296</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1.542386228944665</v>
       </c>
       <c r="C39">
-        <v>3.422204464062475</v>
+        <v>1.260023029834727</v>
       </c>
       <c r="D39">
-        <v>1.490074766100576</v>
+        <v>0.6809706124367236</v>
       </c>
       <c r="E39">
-        <v>1.51851092601666</v>
+        <v>0.4512289083178158</v>
       </c>
       <c r="F39">
-        <v>0.2275519537145385</v>
+        <v>0.4446967834452379</v>
       </c>
       <c r="G39">
-        <v>1.643566472399996</v>
+        <v>0.1384255500832552</v>
       </c>
       <c r="H39">
-        <v>1.814112581554866</v>
+        <v>0.1810202596130352</v>
       </c>
       <c r="I39">
-        <v>1.761430400469066</v>
+        <v>0.1549212564910647</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-2.162181434227747</v>
       </c>
       <c r="C40">
-        <v>0.8790171381180869</v>
+        <v>0.06991298445423411</v>
       </c>
       <c r="D40">
-        <v>2.097747131449623</v>
+        <v>1.030465113750779</v>
       </c>
       <c r="E40">
-        <v>-0.217845575374028</v>
+        <v>-0.0007007456433286152</v>
       </c>
       <c r="F40">
-        <v>1.383368696850638</v>
+        <v>-0.1217722254661026</v>
       </c>
       <c r="G40">
-        <v>1.466524289085726</v>
+        <v>-0.1665680328561053</v>
       </c>
       <c r="H40">
-        <v>1.43942797406919</v>
+        <v>-0.167081169908812</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.8091041536638528</v>
       </c>
       <c r="C41">
-        <v>-0.259195269160756</v>
+        <v>-1.3264772868596</v>
       </c>
       <c r="D41">
-        <v>-1.2018584031822</v>
+        <v>-0.9847135734515007</v>
       </c>
       <c r="E41">
-        <v>1.403009725392792</v>
+        <v>-0.1021311969239491</v>
       </c>
       <c r="F41">
-        <v>1.756983065447855</v>
+        <v>0.1238907435060241</v>
       </c>
       <c r="G41">
-        <v>1.805486868973801</v>
+        <v>0.1989777249957996</v>
       </c>
       <c r="H41">
-        <v>1.200583964077154</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>2.220561011457078</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1.427085304787354</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>1.146455626059861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-1.067282017698844</v>
       </c>
       <c r="C42">
-        <v>-1.642720360861545</v>
+        <v>-1.425575531130846</v>
       </c>
       <c r="D42">
-        <v>0.835036799769227</v>
+        <v>-0.6701041225475137</v>
       </c>
       <c r="E42">
-        <v>1.508896604235105</v>
+        <v>-0.1241957177067264</v>
       </c>
       <c r="F42">
-        <v>1.820612095396157</v>
+        <v>0.2141029514181554</v>
       </c>
       <c r="G42">
-        <v>0.941886803760525</v>
+        <v>-0.2586971603166293</v>
       </c>
       <c r="H42">
-        <v>2.109207233311437</v>
+        <v>-0.1113537781456415</v>
       </c>
       <c r="I42">
-        <v>1.561688186172447</v>
+        <v>0.1346028813850921</v>
       </c>
       <c r="J42">
-        <v>1.098492116761207</v>
+        <v>-0.04796350929865412</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.2171448297306994</v>
       </c>
       <c r="C43">
-        <v>0.5116198667272722</v>
+        <v>-0.9935210555894685</v>
       </c>
       <c r="D43">
-        <v>1.597530409314061</v>
+        <v>-0.0355619126277702</v>
       </c>
       <c r="E43">
-        <v>1.960172393886253</v>
+        <v>0.3536632499082515</v>
       </c>
       <c r="F43">
-        <v>1.046094095788433</v>
+        <v>-0.154489868288721</v>
       </c>
       <c r="G43">
-        <v>2.445971279457623</v>
+        <v>0.2254102680005445</v>
       </c>
       <c r="H43">
-        <v>1.495513743212783</v>
+        <v>0.06842843842542834</v>
       </c>
       <c r="I43">
-        <v>0.9271579299733759</v>
+        <v>-0.2192976960864854</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-1.505140922316741</v>
       </c>
       <c r="C44">
-        <v>-0.229788198843409</v>
+        <v>-1.86288052078524</v>
       </c>
       <c r="D44">
-        <v>0.06714979275721999</v>
+        <v>-1.539359351220782</v>
       </c>
       <c r="E44">
-        <v>-0.5857497290950278</v>
+        <v>-1.786333693172182</v>
       </c>
       <c r="F44">
-        <v>0.8450132098162721</v>
+        <v>-1.375547801640806</v>
       </c>
       <c r="G44">
-        <v>0.4829684280155817</v>
+        <v>-0.9441168767717727</v>
       </c>
       <c r="H44">
-        <v>0.3034903570390952</v>
+        <v>-0.8429652690207661</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1781,34 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-1.633092321941831</v>
       </c>
       <c r="C45">
-        <v>0.3284740411911142</v>
+        <v>-1.278035102786887</v>
       </c>
       <c r="D45">
-        <v>-0.3559463566551528</v>
+        <v>-1.556530320732307</v>
       </c>
       <c r="E45">
-        <v>1.047627574351054</v>
+        <v>-1.172933437106025</v>
       </c>
       <c r="F45">
-        <v>0.4750516351444247</v>
+        <v>-0.9520336696429297</v>
       </c>
       <c r="G45">
-        <v>0.4861868148458796</v>
+        <v>-0.6602688112139816</v>
       </c>
       <c r="H45">
-        <v>0.4241991870095205</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0.267369181340058</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0.4868899006677907</v>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1816,31 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-1.606509143978002</v>
       </c>
       <c r="C46">
-        <v>-0.651032076387267</v>
+        <v>-1.851616040464421</v>
       </c>
       <c r="D46">
-        <v>1.165419832455569</v>
+        <v>-1.055141179001509</v>
       </c>
       <c r="E46">
-        <v>0.6974188722393109</v>
+        <v>-0.7296664325480435</v>
       </c>
       <c r="F46">
-        <v>0.6287347652362172</v>
+        <v>-0.5177208608236441</v>
       </c>
       <c r="G46">
-        <v>0.4788335791136262</v>
+        <v>0.05463439210410573</v>
       </c>
       <c r="H46">
-        <v>0.2735372284694221</v>
+        <v>0.006168047129364085</v>
       </c>
       <c r="I46">
-        <v>0.4614189893722483</v>
+        <v>-0.02547091129554235</v>
+      </c>
+      <c r="J46">
+        <v>-0.0243434706144825</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1848,28 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-1.200583964077154</v>
       </c>
       <c r="C47">
-        <v>0.8047182644471316</v>
+        <v>-1.415842747009947</v>
       </c>
       <c r="D47">
-        <v>0.5500564474061491</v>
+        <v>-0.8770288573812053</v>
       </c>
       <c r="E47">
-        <v>0.7115056929594061</v>
+        <v>-0.4349499331004552</v>
       </c>
       <c r="F47">
-        <v>0.6488109544070824</v>
+        <v>0.2246117673975619</v>
       </c>
       <c r="G47">
-        <v>0.5252293933557013</v>
+        <v>0.2578602120156432</v>
       </c>
       <c r="H47">
-        <v>0.6878479855625415</v>
+        <v>0.2009580848947508</v>
+      </c>
+      <c r="I47">
+        <v>0.2013084705328367</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,91 +1877,181 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>-2.220561011457078</v>
       </c>
       <c r="C48">
-        <v>0.228757752386727</v>
+        <v>-1.198327552400627</v>
       </c>
       <c r="D48">
-        <v>0.4688578188305143</v>
+        <v>-0.6775978072293469</v>
       </c>
       <c r="E48">
-        <v>0.5301016377417085</v>
+        <v>0.105902450732188</v>
       </c>
       <c r="F48">
-        <v>0.4513002191871038</v>
+        <v>0.1839310378470458</v>
       </c>
       <c r="G48">
-        <v>0.6501197416339863</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.1632298409661957</v>
+      </c>
+      <c r="H48">
+        <v>0.1975444670530919</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-1.427085304787354</v>
       </c>
       <c r="C49">
-        <v>0.1762756142228596</v>
+        <v>-0.9701800118370016</v>
       </c>
       <c r="D49">
-        <v>0.3287778612307193</v>
+        <v>-0.09542132577880119</v>
       </c>
       <c r="E49">
-        <v>0.2357703965038098</v>
+        <v>-0.0315987848362482</v>
       </c>
       <c r="F49">
-        <v>0.3809206932275089</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.1059692074402818</v>
+      </c>
+      <c r="G49">
+        <v>-0.05955302228352372</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>-1.146455626059861</v>
       </c>
       <c r="C50">
-        <v>0.1606122652309523</v>
+        <v>-0.2635869217785682</v>
       </c>
       <c r="D50">
-        <v>0.1047426841100787</v>
+        <v>-0.1626264972299793</v>
       </c>
       <c r="E50">
-        <v>0.2837130529550933</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.2031768477126974</v>
+      </c>
+      <c r="F50">
+        <v>-0.2172717263630801</v>
+      </c>
+      <c r="G50">
+        <v>-0.1169427147339519</v>
+      </c>
+      <c r="H50">
+        <v>-0.1464187039977816</v>
+      </c>
+      <c r="I50">
+        <v>-0.1361743463325098</v>
+      </c>
+      <c r="J50">
+        <v>-0.07438590220412766</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-0.4241991870095205</v>
       </c>
       <c r="C51">
-        <v>0.04807424324599197</v>
+        <v>-0.2192949380940661</v>
       </c>
       <c r="D51">
-        <v>0.2817292138322358</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.2051606868355549</v>
+      </c>
+      <c r="E51">
+        <v>-0.2202762536843466</v>
+      </c>
+      <c r="F51">
+        <v>-0.1195142390195514</v>
+      </c>
+      <c r="G51">
+        <v>-0.148986942424358</v>
+      </c>
+      <c r="H51">
+        <v>-0.1148592068571617</v>
+      </c>
+      <c r="I51">
+        <v>-0.05367990970084685</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.267369181340058</v>
       </c>
       <c r="C52">
-        <v>0.3115901559939829</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>-0.1752997446738078</v>
+      </c>
+      <c r="D52">
+        <v>-0.003232216867289084</v>
+      </c>
+      <c r="E52">
+        <v>0.1846004620175847</v>
+      </c>
+      <c r="F52">
+        <v>0.2248329322996909</v>
+      </c>
+      <c r="G52">
+        <v>0.3651861370070008</v>
+      </c>
+      <c r="H52">
+        <v>0.3959487767534853</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B53">
+        <v>-0.4868899006677907</v>
+      </c>
+      <c r="C53">
+        <v>-0.1167926786632734</v>
+      </c>
+      <c r="D53">
+        <v>0.1182067857443485</v>
+      </c>
+      <c r="E53">
+        <v>0.1390225963097435</v>
+      </c>
+      <c r="F53">
+        <v>0.241740060419886</v>
+      </c>
+      <c r="G53">
+        <v>0.2889080272593532</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
         <v>0</v>
       </c>
     </row>

--- a/3_Component_Results/CONSTR/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,19 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.3850031761599837</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-3.637992767367848</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.247482474306742</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5287963669909459</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.080696071920813</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,25 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-5.434240009800993</v>
+        <v>-1.186757535494251</v>
       </c>
       <c r="C3">
-        <v>-0.6185248307282336</v>
+        <v>-0.08972846373728774</v>
       </c>
       <c r="D3">
-        <v>-0.1305400169715938</v>
+        <v>1.950156054949219</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3.334320769827257</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-0.3945900622561713</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-0.7194527654605456</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.677727784779719</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,19 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.8303191719459733</v>
+        <v>1.250376899974839</v>
       </c>
       <c r="C4">
-        <v>-1.275501603403967</v>
+        <v>2.05881916642329</v>
       </c>
       <c r="D4">
-        <v>-1.063283661816087</v>
+        <v>-1.457873724072258</v>
       </c>
       <c r="E4">
-        <v>-0.7419147394171262</v>
+        <v>-1.461367504877672</v>
       </c>
       <c r="F4">
-        <v>-0.5537151111733749</v>
+        <v>1.124012673606344</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,25 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1.471414057497327</v>
+        <v>1.076823995241156</v>
       </c>
       <c r="C5">
-        <v>-0.9421783212153088</v>
+        <v>-1.661631086675854</v>
       </c>
       <c r="D5">
-        <v>-1.241420784291492</v>
+        <v>0.4363070004882275</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.79729158995049</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-6.422163934703491</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.9392135684766885</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.110374640151661</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,19 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.9673395628409622</v>
+        <v>0.7103882219387572</v>
       </c>
       <c r="C6">
-        <v>-0.4572847814320511</v>
+        <v>3.340006808518439</v>
       </c>
       <c r="D6">
-        <v>-0.6364940238284191</v>
+        <v>-7.05865795853191</v>
       </c>
       <c r="E6">
-        <v>-0.5231121352959462</v>
+        <v>0.4161014331807422</v>
       </c>
       <c r="F6">
-        <v>-0.4657911450284047</v>
+        <v>2.644583495123257</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.825138543884265</v>
+        <v>-2.597025390819226</v>
       </c>
       <c r="C7">
-        <v>0.8874097579184477</v>
+        <v>1.826623326395136</v>
       </c>
       <c r="D7">
-        <v>0.8621006540199687</v>
+        <v>3.97247529417163</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-6.387102650656231</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-0.417442503991154</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-0.3924743291503749</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-2.812416893748534</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,19 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.2423827238645657</v>
+        <v>2.867991916287095</v>
       </c>
       <c r="C8">
-        <v>0.2943073782911512</v>
+        <v>-6.09279527236508</v>
       </c>
       <c r="D8">
-        <v>0.9191630363594925</v>
+        <v>0.5017205323683385</v>
       </c>
       <c r="E8">
-        <v>1.734061086388607</v>
+        <v>1.341586757238233</v>
       </c>
       <c r="F8">
-        <v>1.483636072844973</v>
+        <v>-1.328780820903561</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,25 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-2.407443196045719</v>
+        <v>-2.824885700036873</v>
       </c>
       <c r="C9">
-        <v>1.322037416868938</v>
+        <v>0.929563087718563</v>
       </c>
       <c r="D9">
-        <v>1.757620814370824</v>
+        <v>-1.05479607937771</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.651377519636</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.230979565952921</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-0.7692983365578527</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.375457957462658</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,19 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1.866758137758396</v>
+        <v>-0.9456587559901384</v>
       </c>
       <c r="C10">
-        <v>-0.7505197099834933</v>
+        <v>1.900857809652507</v>
       </c>
       <c r="D10">
-        <v>-0.3351915432592705</v>
+        <v>1.895788022693651</v>
       </c>
       <c r="E10">
-        <v>0.2277973479521052</v>
+        <v>-0.5415009886057476</v>
       </c>
       <c r="F10">
-        <v>0.3873715872826298</v>
+        <v>1.762829544745287</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,25 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2.09155740305782</v>
+        <v>4.322536969010741</v>
       </c>
       <c r="C11">
-        <v>1.392503442213979</v>
+        <v>0.6232051056561261</v>
       </c>
       <c r="D11">
-        <v>-0.0001026212675299121</v>
+        <v>1.375355336195128</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.560626293424704</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-1.368338582844274</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>-1.791700676850156</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3704450688905183</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.1153984103011254</v>
+        <v>1.490856367763783</v>
       </c>
       <c r="C12">
-        <v>0.05790387891002524</v>
+        <v>2.618530172334729</v>
       </c>
       <c r="D12">
-        <v>0.01571332702881989</v>
+        <v>-1.352625255815454</v>
       </c>
       <c r="E12">
-        <v>-0.007450096134775208</v>
+        <v>-1.799150772984931</v>
       </c>
       <c r="F12">
-        <v>-0.007285283044154767</v>
+        <v>0.3631597858463635</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,25 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3.072476362954049</v>
+        <v>1.704137780109775</v>
       </c>
       <c r="C13">
-        <v>2.655289327464402</v>
+        <v>0.8635886506142469</v>
       </c>
       <c r="D13">
-        <v>0.6057378832825582</v>
+        <v>0.9761829521730765</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-3.25152108266262</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4.465845014663188</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.9767324629644349</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-0.6968111631648097</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,19 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.03972153055137539</v>
+        <v>0.3307235383391429</v>
       </c>
       <c r="C14">
-        <v>0.2932473272617955</v>
+        <v>-2.958273755400825</v>
       </c>
       <c r="D14">
-        <v>0.1076996047872285</v>
+        <v>4.573544619450416</v>
       </c>
       <c r="E14">
-        <v>0.09394629211426775</v>
+        <v>1.070678755078703</v>
       </c>
       <c r="F14">
-        <v>0.0945496818269902</v>
+        <v>-0.6022614813378195</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,25 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-3.01829345506772</v>
+        <v>1.447551559595468</v>
       </c>
       <c r="C15">
-        <v>-0.111947902004502</v>
+        <v>0.8647845609599329</v>
       </c>
       <c r="D15">
-        <v>-0.01439491654397784</v>
+        <v>-0.7112060797087876</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>-0.8136125548349042</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.21800943633977</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.285091552387001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>-1.009823476456617</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -922,19 +922,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.6008376882472248</v>
+        <v>-1.297648851412035</v>
       </c>
       <c r="C16">
-        <v>-0.1428044017819161</v>
+        <v>-0.9564169566168204</v>
       </c>
       <c r="D16">
-        <v>-0.1131193320204034</v>
+        <v>2.104890104319367</v>
       </c>
       <c r="E16">
-        <v>-0.09317900464125728</v>
+        <v>1.191912547745744</v>
       </c>
       <c r="F16">
-        <v>-0.03513336997822591</v>
+        <v>-1.044956846434843</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -942,25 +942,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.8578286986164727</v>
+        <v>1.360180737723297</v>
       </c>
       <c r="C17">
-        <v>-0.8765542872378376</v>
+        <v>0.4085372651491639</v>
       </c>
       <c r="D17">
-        <v>-0.7122289820847243</v>
+        <v>-1.722052458541342</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>-1.987866238238027</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.413727231920618</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.3385273650995941</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>-0.2029682420031236</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -968,31 +968,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.1204774087570257</v>
+        <v>-1.130300885213643</v>
       </c>
       <c r="C18">
-        <v>0.3188294158516527</v>
+        <v>-1.669036822386374</v>
       </c>
       <c r="D18">
-        <v>0.206445818712595</v>
+        <v>2.620173050633213</v>
       </c>
       <c r="E18">
-        <v>0.1262215545507246</v>
+        <v>0.4647489196503187</v>
       </c>
       <c r="F18">
-        <v>-0.06917413890137425</v>
+        <v>-0.2721423809044978</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>-1.672782902616945</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.133225882922531</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.099488893348251</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.02513052979252</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1000,25 +1000,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1.137357586742937</v>
+        <v>1.276369645177681</v>
       </c>
       <c r="C19">
-        <v>0.03184445819032078</v>
+        <v>0.3703718232899149</v>
       </c>
       <c r="D19">
-        <v>0.1516154636729681</v>
+        <v>-0.0513527783301555</v>
       </c>
       <c r="E19">
-        <v>0.1418775611545016</v>
+        <v>-1.530905341462443</v>
       </c>
       <c r="F19">
-        <v>0.1414313576046027</v>
+        <v>0.2746572405271337</v>
       </c>
       <c r="G19">
-        <v>0.1144072005646137</v>
+        <v>1.213896093912865</v>
       </c>
       <c r="H19">
-        <v>0.1143034902239037</v>
+        <v>1.139434020016424</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1026,31 +1026,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.8118272349819902</v>
+        <v>0.6088589929788666</v>
       </c>
       <c r="C20">
-        <v>0.1106373294238665</v>
+        <v>-1.562145573193078</v>
       </c>
       <c r="D20">
-        <v>0.1095261787951074</v>
+        <v>0.2427520617176384</v>
       </c>
       <c r="E20">
-        <v>0.1077261834712573</v>
+        <v>1.207215076819509</v>
       </c>
       <c r="F20">
-        <v>0.1077155769424536</v>
+        <v>1.132846106734974</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>-1.42728640096162</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03598717831744125</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>-0.2428542957582863</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-0.6267944630007347</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1058,25 +1058,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.3046540234713859</v>
+        <v>0.4378799063939169</v>
       </c>
       <c r="C21">
-        <v>0.06974623844186567</v>
+        <v>1.169235131790117</v>
       </c>
       <c r="D21">
-        <v>0.09847340888384792</v>
+        <v>1.123603938676368</v>
       </c>
       <c r="E21">
-        <v>0.1264803641797698</v>
+        <v>-1.300806036781851</v>
       </c>
       <c r="F21">
-        <v>0.132811907425932</v>
+        <v>0.1687990857433732</v>
       </c>
       <c r="G21">
-        <v>0.01589574356029289</v>
+        <v>-0.2269585521979934</v>
       </c>
       <c r="H21">
-        <v>0.01577626001174792</v>
+        <v>-0.6110182029889868</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1084,31 +1084,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.4458873417698894</v>
+        <v>1.471017871562409</v>
       </c>
       <c r="C22">
-        <v>0.2632606963844495</v>
+        <v>-1.164025704577171</v>
       </c>
       <c r="D22">
-        <v>0.1115470499748028</v>
+        <v>0.1475342282922441</v>
       </c>
       <c r="E22">
-        <v>0.08510836704118674</v>
+        <v>-0.1577459287170996</v>
       </c>
       <c r="F22">
-        <v>-0.0518928638084617</v>
+        <v>-0.6786873268091964</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>-1.29426829016196</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.614532096399159</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>-0.6089855557249564</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-0.03592789360209281</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1116,28 +1116,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.3290314592345709</v>
+        <v>-1.09825494172705</v>
       </c>
       <c r="C23">
-        <v>0.2130768371422107</v>
+        <v>0.249064015459652</v>
       </c>
       <c r="D23">
-        <v>0.1772739403111245</v>
+        <v>-0.06558035544716179</v>
       </c>
       <c r="E23">
-        <v>0.1791780752059111</v>
+        <v>-0.4476163877948236</v>
       </c>
       <c r="F23">
-        <v>-0.05149878621529069</v>
+        <v>-1.345767076377251</v>
       </c>
       <c r="G23">
-        <v>-0.02445439171496844</v>
+        <v>1.590077704684191</v>
       </c>
       <c r="H23">
-        <v>0.03035098146098392</v>
+        <v>-0.5786345742639725</v>
       </c>
       <c r="I23">
-        <v>0.03045251305596253</v>
+        <v>-0.005475380546130282</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1145,25 +1145,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.8039584920179694</v>
+        <v>0.8399456703354107</v>
       </c>
       <c r="C24">
-        <v>-0.1753250150944723</v>
+        <v>-0.4181793108527586</v>
       </c>
       <c r="D24">
-        <v>-0.1749382752768724</v>
+        <v>-0.8017327382776072</v>
       </c>
       <c r="E24">
-        <v>0.04658869785190234</v>
+        <v>-1.247679592310058</v>
       </c>
       <c r="F24">
-        <v>0.06490991894041542</v>
+        <v>1.679442015339575</v>
       </c>
       <c r="G24">
-        <v>0.08927795990388177</v>
+        <v>-0.5197075958210746</v>
       </c>
       <c r="H24">
-        <v>0.08899575760612777</v>
+        <v>0.05306786400403496</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1171,34 +1171,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.08822145631394562</v>
+        <v>-0.1546328394443407</v>
       </c>
       <c r="C25">
-        <v>-0.06106430070704505</v>
+        <v>-0.6878587637077798</v>
       </c>
       <c r="D25">
-        <v>0.05881568797168768</v>
+        <v>-1.235452602190273</v>
       </c>
       <c r="E25">
-        <v>0.07765242991260379</v>
+        <v>1.692184526311763</v>
       </c>
       <c r="F25">
-        <v>0.1020440734215811</v>
+        <v>-0.5069414823033753</v>
       </c>
       <c r="G25">
-        <v>0.1017854347961276</v>
+        <v>0.06585754119403475</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-3.507628079192392</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.814296967687382</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.559784639215266</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>-1.243137068610409</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1206,31 +1206,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.1424713890534577</v>
+        <v>-0.484323073947277</v>
       </c>
       <c r="C26">
-        <v>0.09426829016196048</v>
+        <v>-1.2</v>
       </c>
       <c r="D26">
-        <v>0.1118826500813668</v>
+        <v>1.726414746480526</v>
       </c>
       <c r="E26">
-        <v>0.1360051842945864</v>
+        <v>-0.47298037143037</v>
       </c>
       <c r="F26">
-        <v>0.1354778422383418</v>
+        <v>0.099549948636249</v>
       </c>
       <c r="G26">
-        <v>-0.09237192080760792</v>
+        <v>-3.6</v>
       </c>
       <c r="H26">
-        <v>-0.09216355126163478</v>
+        <v>4.722133416425748</v>
       </c>
       <c r="I26">
-        <v>-0.09256984854461336</v>
+        <v>2.467214790670653</v>
       </c>
       <c r="J26">
-        <v>-0.09297567884671309</v>
+        <v>-1.336112747457122</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1238,28 +1238,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.2044297991646857</v>
+        <v>-1.089838490997275</v>
       </c>
       <c r="C27">
-        <v>0.1192758389145894</v>
+        <v>1.733807935313749</v>
       </c>
       <c r="D27">
-        <v>0.1165940582855001</v>
+        <v>-0.4923914974394563</v>
       </c>
       <c r="E27">
-        <v>0.1029700151648143</v>
+        <v>0.06704212156272149</v>
       </c>
       <c r="F27">
-        <v>-0.1137242464624251</v>
+        <v>-3.621352325654817</v>
       </c>
       <c r="G27">
-        <v>-0.1125742831384713</v>
+        <v>4.701722684548911</v>
       </c>
       <c r="H27">
-        <v>-0.1125697537143964</v>
+        <v>2.44721488550087</v>
       </c>
       <c r="I27">
-        <v>-0.1125655442566114</v>
+        <v>-1.35570261286702</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1267,25 +1267,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.1118826500813668</v>
+        <v>1.726414746480526</v>
       </c>
       <c r="C28">
-        <v>0.03600518429458643</v>
+        <v>-0.57298037143037</v>
       </c>
       <c r="D28">
-        <v>0.03547784223834183</v>
+        <v>-0.0004500513637509806</v>
       </c>
       <c r="E28">
-        <v>-0.09237192080760792</v>
+        <v>-3.6</v>
       </c>
       <c r="F28">
-        <v>-0.09216355126163478</v>
+        <v>4.722133416425748</v>
       </c>
       <c r="G28">
-        <v>-0.09256984854461336</v>
+        <v>2.467214790670653</v>
       </c>
       <c r="H28">
-        <v>-0.09297567884671309</v>
+        <v>-1.336112747457122</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1293,34 +1293,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.2624551693718757</v>
+        <v>-0.3465303863530806</v>
       </c>
       <c r="C29">
-        <v>0.04243513544632549</v>
+        <v>0.006507241844232681</v>
       </c>
       <c r="D29">
-        <v>-0.1307915703774114</v>
+        <v>-3.638419649569803</v>
       </c>
       <c r="E29">
-        <v>-0.1301379589634877</v>
+        <v>4.684159008723895</v>
       </c>
       <c r="F29">
-        <v>-0.1302285645589193</v>
+        <v>2.429556074656347</v>
       </c>
       <c r="G29">
-        <v>-0.1303190457162202</v>
+        <v>-1.373456114326629</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>-0.8216403633849296</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.04320316187430251</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2.65742384356551</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>0.2848993550424694</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1328,31 +1328,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.295050419353828</v>
+        <v>-0.3309783129559208</v>
       </c>
       <c r="C30">
-        <v>-0.1133521457396398</v>
+        <v>-3.620980224932032</v>
       </c>
       <c r="D30">
-        <v>-0.1144521270986587</v>
+        <v>4.699844840588724</v>
       </c>
       <c r="E30">
-        <v>-0.1760162580750801</v>
+        <v>2.383768381140186</v>
       </c>
       <c r="F30">
-        <v>-0.1763097012171215</v>
+        <v>-1.41944676982753</v>
       </c>
       <c r="G30">
-        <v>0.08206963252533228</v>
+        <v>-0.7395707308595973</v>
       </c>
       <c r="H30">
-        <v>0.08216623893378028</v>
+        <v>0.1253694008080828</v>
       </c>
       <c r="I30">
-        <v>0.08221728540510759</v>
+        <v>2.739641128970618</v>
       </c>
       <c r="J30">
-        <v>0.08226827193571751</v>
+        <v>0.3671676269781869</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1360,28 +1360,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.3786060204853214</v>
+        <v>-3.12902205870707</v>
       </c>
       <c r="C31">
-        <v>-0.9872702899298815</v>
+        <v>3.827026677757501</v>
       </c>
       <c r="D31">
-        <v>-0.2468465780876415</v>
+        <v>2.312938061127625</v>
       </c>
       <c r="E31">
-        <v>-0.1692852924150117</v>
+        <v>-1.412422361025421</v>
       </c>
       <c r="F31">
-        <v>0.0831236544299116</v>
+        <v>-0.738516708955018</v>
       </c>
       <c r="G31">
-        <v>0.08316401125351547</v>
+        <v>0.126367173127818</v>
       </c>
       <c r="H31">
-        <v>0.08321432970112153</v>
+        <v>2.740638173266631</v>
       </c>
       <c r="I31">
-        <v>0.0832645857569787</v>
+        <v>0.3681639407994481</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1389,25 +1389,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-6.592163551261635</v>
+        <v>-1.777866583574252</v>
       </c>
       <c r="C32">
-        <v>0.5074301514553867</v>
+        <v>3.067214790670653</v>
       </c>
       <c r="D32">
-        <v>0.3070243211532869</v>
+        <v>-0.9361127474571219</v>
       </c>
       <c r="E32">
-        <v>0.5791331216483627</v>
+        <v>-0.2425072417365669</v>
       </c>
       <c r="F32">
-        <v>0.4789046913060446</v>
+        <v>0.5221078531803471</v>
       </c>
       <c r="G32">
-        <v>0.1787878416545539</v>
+        <v>2.836211685220064</v>
       </c>
       <c r="H32">
-        <v>0.1786710959285642</v>
+        <v>0.4635704509710337</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.9867534939211566</v>
+        <v>1.57303114529411</v>
       </c>
       <c r="C33">
-        <v>0.2235259098323183</v>
+        <v>-1.01961115877809</v>
       </c>
       <c r="D33">
-        <v>0.5547084142716443</v>
+        <v>-0.2669319491132853</v>
       </c>
       <c r="E33">
-        <v>0.526497362698322</v>
+        <v>0.5697005245726245</v>
       </c>
       <c r="F33">
-        <v>0.2183704164170309</v>
+        <v>2.875794259982541</v>
       </c>
       <c r="G33">
-        <v>0.2185864723441853</v>
+        <v>0.5034858273866547</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>-4.057675159112989</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>3.927615181527571</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1.999097423447636</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>3.417723359031953</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.2871833298867301</v>
+        <v>-0.9559537387236787</v>
       </c>
       <c r="C34">
-        <v>0.9664168219819378</v>
+        <v>0.1447764585970082</v>
       </c>
       <c r="D34">
-        <v>0.8063910117312927</v>
+        <v>0.8495941736055952</v>
       </c>
       <c r="E34">
-        <v>0.5816568451789124</v>
+        <v>3.239080688744422</v>
       </c>
       <c r="F34">
-        <v>0.5693033495366393</v>
+        <v>0.8542027045791087</v>
       </c>
       <c r="G34">
-        <v>-0.08823655928181035</v>
+        <v>-4.1459117183948</v>
       </c>
       <c r="H34">
-        <v>-0.09454724077306764</v>
+        <v>3.833067940754503</v>
       </c>
       <c r="I34">
-        <v>-0.1559972700255229</v>
+        <v>1.843100153422113</v>
       </c>
       <c r="J34">
-        <v>-0.1560646193530602</v>
+        <v>3.261658739678893</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-3.950036750260409</v>
+        <v>-4.771677113645339</v>
       </c>
       <c r="C35">
-        <v>2.185868374575791</v>
+        <v>2.229071536450093</v>
       </c>
       <c r="D35">
-        <v>1.910255895147685</v>
+        <v>4.567679738713195</v>
       </c>
       <c r="E35">
-        <v>1.412092104976779</v>
+        <v>1.696991460019249</v>
       </c>
       <c r="F35">
-        <v>0.2108230990030648</v>
+        <v>-3.846852060109924</v>
       </c>
       <c r="G35">
-        <v>0.01909275772440822</v>
+        <v>3.946707939251979</v>
       </c>
       <c r="H35">
-        <v>-0.2082245000519692</v>
+        <v>1.790872923395667</v>
       </c>
       <c r="I35">
-        <v>-0.2080747364590962</v>
+        <v>3.209648622572857</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.3668459010783351</v>
+        <v>0.4100490629526377</v>
       </c>
       <c r="C36">
-        <v>1.258010987956411</v>
+        <v>3.915434831521921</v>
       </c>
       <c r="D36">
-        <v>0.8896772633494832</v>
+        <v>1.174576618391953</v>
       </c>
       <c r="E36">
-        <v>0.07277326112297544</v>
+        <v>-3.984901897990014</v>
       </c>
       <c r="F36">
-        <v>-0.03099440414032983</v>
+        <v>3.896620777387241</v>
       </c>
       <c r="G36">
-        <v>-0.2102881249588365</v>
+        <v>1.7888092984888</v>
       </c>
       <c r="H36">
-        <v>-0.2101396340040793</v>
+        <v>3.207583725027874</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.7743792553568478</v>
+        <v>3.431803098922358</v>
       </c>
       <c r="C37">
-        <v>1.170369685482285</v>
+        <v>1.455269040524755</v>
       </c>
       <c r="D37">
-        <v>0.43605659946904</v>
+        <v>-3.621618559643949</v>
       </c>
       <c r="E37">
-        <v>0.1032015226669074</v>
+        <v>4.030816704194478</v>
       </c>
       <c r="F37">
-        <v>0.02634672592094489</v>
+        <v>2.025444149368581</v>
       </c>
       <c r="G37">
-        <v>0.02678732106321036</v>
+        <v>3.444510680095163</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-3.510785674933714</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.1898124181703338</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>-0.05255040135403977</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2.102933852855202</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.01625290539564611</v>
+        <v>0.3011522604381155</v>
       </c>
       <c r="C38">
-        <v>1.334612350061604</v>
+        <v>-2.723062809051385</v>
       </c>
       <c r="D38">
-        <v>0.9340959694104785</v>
+        <v>4.861711150938049</v>
       </c>
       <c r="E38">
-        <v>0.6958597417989696</v>
+        <v>2.694957165246606</v>
       </c>
       <c r="F38">
-        <v>0.3173207737154939</v>
+        <v>3.735044132747447</v>
       </c>
       <c r="G38">
-        <v>-0.005038620391047799</v>
+        <v>-3.515824295324762</v>
       </c>
       <c r="H38">
-        <v>0.003844086749097753</v>
+        <v>0.1936565049194315</v>
       </c>
       <c r="I38">
-        <v>0.001461072828547461</v>
+        <v>-0.05108932852549231</v>
       </c>
       <c r="J38">
-        <v>0.001690422387895296</v>
+        <v>2.104624275243097</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>1.542386228944665</v>
+        <v>-2.515288930168324</v>
       </c>
       <c r="C39">
-        <v>1.260023029834727</v>
+        <v>5.187638211362298</v>
       </c>
       <c r="D39">
-        <v>0.6809706124367236</v>
+        <v>2.68006803588436</v>
       </c>
       <c r="E39">
-        <v>0.4512289083178158</v>
+        <v>3.868952267349769</v>
       </c>
       <c r="F39">
-        <v>0.4446967834452379</v>
+        <v>-3.066088891488476</v>
       </c>
       <c r="G39">
-        <v>0.1384255500832552</v>
+        <v>0.328237968253589</v>
       </c>
       <c r="H39">
-        <v>0.1810202596130352</v>
+        <v>0.1284698582589954</v>
       </c>
       <c r="I39">
-        <v>0.1549212564910647</v>
+        <v>2.257855109346266</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-2.162181434227747</v>
+        <v>1.765433747299823</v>
       </c>
       <c r="C40">
-        <v>0.06991298445423411</v>
+        <v>2.069010407901871</v>
       </c>
       <c r="D40">
-        <v>1.030465113750779</v>
+        <v>4.448188472782732</v>
       </c>
       <c r="E40">
-        <v>-0.0007007456433286152</v>
+        <v>-3.511486420577043</v>
       </c>
       <c r="F40">
-        <v>-0.1217722254661026</v>
+        <v>0.06804019270423123</v>
       </c>
       <c r="G40">
-        <v>-0.1665680328561053</v>
+        <v>-0.2191184342101451</v>
       </c>
       <c r="H40">
-        <v>-0.167081169908812</v>
+        <v>1.93585268294639</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.8091041536638528</v>
+        <v>1.189993269783784</v>
       </c>
       <c r="C41">
-        <v>-1.3264772868596</v>
+        <v>2.091246072172353</v>
       </c>
       <c r="D41">
-        <v>-0.9847135734515007</v>
+        <v>-4.495499248385215</v>
       </c>
       <c r="E41">
-        <v>-0.1021311969239491</v>
+        <v>0.08768122124638472</v>
       </c>
       <c r="F41">
-        <v>0.1238907435060241</v>
+        <v>0.07134034215198432</v>
       </c>
       <c r="G41">
-        <v>0.1989777249957996</v>
+        <v>2.301911577851001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-1.679327730985363</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2.913261105228884</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1.128109573359311</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>-0.2615008865170834</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-1.067282017698844</v>
+        <v>2.350441341333109</v>
       </c>
       <c r="C42">
-        <v>-1.425575531130846</v>
+        <v>-4.93636120606456</v>
       </c>
       <c r="D42">
-        <v>-0.6701041225475137</v>
+        <v>-0.4802917043771799</v>
       </c>
       <c r="E42">
-        <v>-0.1241957177067264</v>
+        <v>-0.1767461190607662</v>
       </c>
       <c r="F42">
-        <v>0.2141029514181554</v>
+        <v>2.317036804273357</v>
       </c>
       <c r="G42">
-        <v>-0.2586971603166293</v>
+        <v>-1.938024891301992</v>
       </c>
       <c r="H42">
-        <v>-0.1113537781456415</v>
+        <v>2.801907327083242</v>
       </c>
       <c r="I42">
-        <v>0.1346028813850921</v>
+        <v>1.262712454744403</v>
       </c>
       <c r="J42">
-        <v>-0.04796350929865412</v>
+        <v>-0.3094643958157375</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.2171448297306994</v>
+        <v>-3.293640845203015</v>
       </c>
       <c r="C43">
-        <v>-0.9935210555894685</v>
+        <v>-0.8037086374191347</v>
       </c>
       <c r="D43">
-        <v>-0.0355619126277702</v>
+        <v>-0.08811231398180996</v>
       </c>
       <c r="E43">
-        <v>0.3536632499082515</v>
+        <v>2.456597102763453</v>
       </c>
       <c r="F43">
-        <v>-0.154489868288721</v>
+        <v>-1.833817599274084</v>
       </c>
       <c r="G43">
-        <v>0.2254102680005445</v>
+        <v>3.138671373229428</v>
       </c>
       <c r="H43">
-        <v>0.06842843842542834</v>
+        <v>1.196538011784739</v>
       </c>
       <c r="I43">
-        <v>-0.2192976960864854</v>
+        <v>-0.4807985826035688</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>-1.505140922316741</v>
+        <v>-1.315328504146407</v>
       </c>
       <c r="C44">
-        <v>-1.86288052078524</v>
+        <v>-1.91543092213928</v>
       </c>
       <c r="D44">
-        <v>-1.539359351220782</v>
+        <v>0.56357450163442</v>
       </c>
       <c r="E44">
-        <v>-1.786333693172182</v>
+        <v>-3.465661424157545</v>
       </c>
       <c r="F44">
-        <v>-1.375547801640806</v>
+        <v>1.537713303588077</v>
       </c>
       <c r="G44">
-        <v>-0.9441168767717727</v>
+        <v>0.1839926965875378</v>
       </c>
       <c r="H44">
-        <v>-0.8429652690207661</v>
+        <v>-1.104466155537849</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,34 +1781,28 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-1.633092321941831</v>
+        <v>-1.685642723295871</v>
       </c>
       <c r="C45">
-        <v>-1.278035102786887</v>
+        <v>0.8248987500683143</v>
       </c>
       <c r="D45">
-        <v>-1.556530320732307</v>
+        <v>-3.23585805171767</v>
       </c>
       <c r="E45">
-        <v>-1.172933437106025</v>
+        <v>1.740327668122859</v>
       </c>
       <c r="F45">
-        <v>-0.9520336696429297</v>
+        <v>0.1760759037163808</v>
       </c>
       <c r="G45">
-        <v>-0.6602688112139816</v>
+        <v>-0.921769697731065</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-0.3284578705855523</v>
       </c>
       <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
+        <v>2.335832826486041</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1816,31 +1810,25 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>-1.606509143978002</v>
+        <v>0.4964247088772</v>
       </c>
       <c r="C46">
-        <v>-1.851616040464421</v>
+        <v>-3.530943771449784</v>
       </c>
       <c r="D46">
-        <v>-1.055141179001509</v>
+        <v>1.858119926227374</v>
       </c>
       <c r="E46">
-        <v>-0.7296664325480435</v>
+        <v>0.398443140811267</v>
       </c>
       <c r="F46">
-        <v>-0.5177208608236441</v>
+        <v>-0.7792217473407275</v>
       </c>
       <c r="G46">
-        <v>0.05463439210410573</v>
+        <v>-0.2738234784814466</v>
       </c>
       <c r="H46">
-        <v>0.006168047129364085</v>
-      </c>
-      <c r="I46">
-        <v>-0.02547091129554235</v>
-      </c>
-      <c r="J46">
-        <v>-0.0243434706144825</v>
+        <v>2.342000873615405</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1848,28 +1836,22 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>-1.200583964077154</v>
+        <v>-2.879911695062517</v>
       </c>
       <c r="C47">
-        <v>-1.415842747009947</v>
+        <v>1.497418358218937</v>
       </c>
       <c r="D47">
-        <v>-0.8770288573812053</v>
+        <v>0.2510807159781052</v>
       </c>
       <c r="E47">
-        <v>-0.4349499331004552</v>
+        <v>-0.6964508196175385</v>
       </c>
       <c r="F47">
-        <v>0.2246117673975619</v>
+        <v>-0.1038461031879904</v>
       </c>
       <c r="G47">
-        <v>0.2578602120156432</v>
-      </c>
-      <c r="H47">
-        <v>0.2009580848947508</v>
-      </c>
-      <c r="I47">
-        <v>0.2013084705328367</v>
+        <v>2.593693038501684</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1877,182 +1859,74 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>-2.220561011457078</v>
+        <v>0.6927000937718053</v>
       </c>
       <c r="C48">
-        <v>-1.198327552400627</v>
+        <v>-0.07021797904131688</v>
       </c>
       <c r="D48">
-        <v>-0.6775978072293469</v>
+        <v>-0.9390986937464303</v>
       </c>
       <c r="E48">
-        <v>0.105902450732188</v>
+        <v>-0.2225554198533644</v>
       </c>
       <c r="F48">
-        <v>0.1839310378470458</v>
-      </c>
-      <c r="G48">
-        <v>0.1632298409661957</v>
-      </c>
-      <c r="H48">
-        <v>0.1975444670530919</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>2.519763864333087</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>-1.427085304787354</v>
+        <v>-0.2989757314280439</v>
       </c>
       <c r="C49">
-        <v>-0.9701800118370016</v>
+        <v>-1.231680898354085</v>
       </c>
       <c r="D49">
-        <v>-0.09542132577880119</v>
+        <v>-0.4238791963643536</v>
       </c>
       <c r="E49">
-        <v>-0.0315987848362482</v>
-      </c>
-      <c r="F49">
-        <v>-0.1059692074402818</v>
-      </c>
-      <c r="G49">
-        <v>-0.05955302228352372</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>2.304234041649793</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>-1.146455626059861</v>
+        <v>-1.407956512576945</v>
       </c>
       <c r="C50">
-        <v>-0.2635869217785682</v>
+        <v>-0.5920447923641206</v>
       </c>
       <c r="D50">
-        <v>-0.1626264972299793</v>
-      </c>
-      <c r="E50">
-        <v>-0.2031768477126974</v>
-      </c>
-      <c r="F50">
-        <v>-0.2172717263630801</v>
-      </c>
-      <c r="G50">
-        <v>-0.1169427147339519</v>
-      </c>
-      <c r="H50">
-        <v>-0.1464187039977816</v>
-      </c>
-      <c r="I50">
-        <v>-0.1361743463325098</v>
-      </c>
-      <c r="J50">
-        <v>-0.07438590220412766</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>2.173206329256061</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.4241991870095205</v>
+        <v>-0.7526570575950728</v>
       </c>
       <c r="C51">
-        <v>-0.2192949380940661</v>
-      </c>
-      <c r="D51">
-        <v>-0.2051606868355549</v>
-      </c>
-      <c r="E51">
-        <v>-0.2202762536843466</v>
-      </c>
-      <c r="F51">
-        <v>-0.1195142390195514</v>
-      </c>
-      <c r="G51">
-        <v>-0.148986942424358</v>
-      </c>
-      <c r="H51">
-        <v>-0.1148592068571617</v>
-      </c>
-      <c r="I51">
-        <v>-0.05367990970084685</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>2.116537888391975</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>-0.267369181340058</v>
-      </c>
-      <c r="C52">
-        <v>-0.1752997446738078</v>
-      </c>
-      <c r="D52">
-        <v>-0.003232216867289084</v>
-      </c>
-      <c r="E52">
-        <v>0.1846004620175847</v>
-      </c>
-      <c r="F52">
-        <v>0.2248329322996909</v>
-      </c>
-      <c r="G52">
-        <v>0.3651861370070008</v>
-      </c>
-      <c r="H52">
-        <v>0.3959487767534853</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>2.068463645145983</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B53">
-        <v>-0.4868899006677907</v>
-      </c>
-      <c r="C53">
-        <v>-0.1167926786632734</v>
-      </c>
-      <c r="D53">
-        <v>0.1182067857443485</v>
-      </c>
-      <c r="E53">
-        <v>0.1390225963097435</v>
-      </c>
-      <c r="F53">
-        <v>0.241740060419886</v>
-      </c>
-      <c r="G53">
-        <v>0.2889080272593532</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/CONSTR/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/CONSTR/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/3_Component_Results/CONSTR/Data/ifo_err/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_23F921ED9F230D33B32D4C6FBD8E7C1D55549F86" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E28A13D5-CB9A-4D3E-ABA3-1056C70CD300}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -205,8 +224,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,17 +284,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +340,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -347,6 +374,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -381,9 +409,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,14 +585,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:T16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -606,7 +640,7 @@
         <v>-3.637992767367848</v>
       </c>
       <c r="D2">
-        <v>4.247482474306742</v>
+        <v>4.2474824743067421</v>
       </c>
       <c r="E2">
         <v>0.5287963669909459</v>
@@ -615,7 +649,7 @@
         <v>2.080696071920813</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -623,7 +657,7 @@
         <v>-1.186757535494251</v>
       </c>
       <c r="C3">
-        <v>-0.08972846373728774</v>
+        <v>-8.9728463737287739E-2</v>
       </c>
       <c r="D3">
         <v>1.950156054949219</v>
@@ -632,7 +666,7 @@
         <v>3.334320769827257</v>
       </c>
       <c r="F3">
-        <v>-0.3945900622561713</v>
+        <v>-0.39459006225617133</v>
       </c>
       <c r="G3">
         <v>-0.7194527654605456</v>
@@ -641,7 +675,7 @@
         <v>1.677727784779719</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -652,7 +686,7 @@
         <v>2.05881916642329</v>
       </c>
       <c r="D4">
-        <v>-1.457873724072258</v>
+        <v>-1.4578737240722579</v>
       </c>
       <c r="E4">
         <v>-1.461367504877672</v>
@@ -661,7 +695,7 @@
         <v>1.124012673606344</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -669,71 +703,71 @@
         <v>1.076823995241156</v>
       </c>
       <c r="C5">
-        <v>-1.661631086675854</v>
+        <v>-1.6616310866758539</v>
       </c>
       <c r="D5">
-        <v>0.4363070004882275</v>
+        <v>0.43630700048822751</v>
       </c>
       <c r="E5">
-        <v>3.79729158995049</v>
+        <v>3.7972915899504902</v>
       </c>
       <c r="F5">
-        <v>-6.422163934703491</v>
+        <v>-6.4221639347034909</v>
       </c>
       <c r="G5">
-        <v>0.9392135684766885</v>
+        <v>0.93921356847668847</v>
       </c>
       <c r="H5">
-        <v>3.110374640151661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>3.1103746401516612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.7103882219387572</v>
+        <v>0.71038822193875717</v>
       </c>
       <c r="C6">
-        <v>3.340006808518439</v>
+        <v>3.3400068085184391</v>
       </c>
       <c r="D6">
         <v>-7.05865795853191</v>
       </c>
       <c r="E6">
-        <v>0.4161014331807422</v>
+        <v>0.41610143318074222</v>
       </c>
       <c r="F6">
         <v>2.644583495123257</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-2.597025390819226</v>
+        <v>-2.5970253908192258</v>
       </c>
       <c r="C7">
-        <v>1.826623326395136</v>
+        <v>1.8266233263951359</v>
       </c>
       <c r="D7">
-        <v>3.97247529417163</v>
+        <v>3.9724752941716299</v>
       </c>
       <c r="E7">
-        <v>-6.387102650656231</v>
+        <v>-6.3871026506562307</v>
       </c>
       <c r="F7">
-        <v>-0.417442503991154</v>
+        <v>-0.41744250399115401</v>
       </c>
       <c r="G7">
-        <v>-0.3924743291503749</v>
+        <v>-0.39247432915037489</v>
       </c>
       <c r="H7">
-        <v>-2.812416893748534</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>-2.8124168937485341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -741,10 +775,10 @@
         <v>2.867991916287095</v>
       </c>
       <c r="C8">
-        <v>-6.09279527236508</v>
+        <v>-6.0927952723650796</v>
       </c>
       <c r="D8">
-        <v>0.5017205323683385</v>
+        <v>0.50172053236833847</v>
       </c>
       <c r="E8">
         <v>1.341586757238233</v>
@@ -753,7 +787,7 @@
         <v>-1.328780820903561</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -767,53 +801,53 @@
         <v>-1.05479607937771</v>
       </c>
       <c r="E9">
-        <v>2.651377519636</v>
+        <v>2.6513775196360001</v>
       </c>
       <c r="F9">
         <v>2.230979565952921</v>
       </c>
       <c r="G9">
-        <v>-0.7692983365578527</v>
+        <v>-0.76929833655785274</v>
       </c>
       <c r="H9">
         <v>1.375457957462658</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.9456587559901384</v>
+        <v>-0.94565875599013838</v>
       </c>
       <c r="C10">
-        <v>1.900857809652507</v>
+        <v>1.9008578096525071</v>
       </c>
       <c r="D10">
         <v>1.895788022693651</v>
       </c>
       <c r="E10">
-        <v>-0.5415009886057476</v>
+        <v>-0.54150098860574758</v>
       </c>
       <c r="F10">
-        <v>1.762829544745287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>1.7628295447452871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>4.322536969010741</v>
+        <v>4.3225369690107414</v>
       </c>
       <c r="C11">
-        <v>0.6232051056561261</v>
+        <v>0.62320510565612608</v>
       </c>
       <c r="D11">
-        <v>1.375355336195128</v>
+        <v>1.3753553361951281</v>
       </c>
       <c r="E11">
-        <v>2.560626293424704</v>
+        <v>2.5606262934247042</v>
       </c>
       <c r="F11">
         <v>-1.368338582844274</v>
@@ -822,30 +856,30 @@
         <v>-1.791700676850156</v>
       </c>
       <c r="H11">
-        <v>0.3704450688905183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>0.37044506889051831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1.490856367763783</v>
+        <v>1.4908563677637829</v>
       </c>
       <c r="C12">
         <v>2.618530172334729</v>
       </c>
       <c r="D12">
-        <v>-1.352625255815454</v>
+        <v>-1.3526252558154539</v>
       </c>
       <c r="E12">
         <v>-1.799150772984931</v>
       </c>
       <c r="F12">
-        <v>0.3631597858463635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.36315978584636349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -853,45 +887,45 @@
         <v>1.704137780109775</v>
       </c>
       <c r="C13">
-        <v>0.8635886506142469</v>
+        <v>0.86358865061424694</v>
       </c>
       <c r="D13">
-        <v>0.9761829521730765</v>
+        <v>0.97618295217307649</v>
       </c>
       <c r="E13">
-        <v>-3.25152108266262</v>
+        <v>-3.2515210826626202</v>
       </c>
       <c r="F13">
-        <v>4.465845014663188</v>
+        <v>4.4658450146631878</v>
       </c>
       <c r="G13">
-        <v>0.9767324629644349</v>
+        <v>0.97673246296443494</v>
       </c>
       <c r="H13">
-        <v>-0.6968111631648097</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>-0.69681116316480973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.3307235383391429</v>
+        <v>0.33072353833914292</v>
       </c>
       <c r="C14">
-        <v>-2.958273755400825</v>
+        <v>-2.9582737554008252</v>
       </c>
       <c r="D14">
-        <v>4.573544619450416</v>
+        <v>4.5735446194504163</v>
       </c>
       <c r="E14">
-        <v>1.070678755078703</v>
+        <v>1.0706787550787029</v>
       </c>
       <c r="F14">
-        <v>-0.6022614813378195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>-0.60226148133781954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -899,13 +933,13 @@
         <v>1.447551559595468</v>
       </c>
       <c r="C15">
-        <v>0.8647845609599329</v>
+        <v>0.86478456095993295</v>
       </c>
       <c r="D15">
-        <v>-0.7112060797087876</v>
+        <v>-0.71120607970878758</v>
       </c>
       <c r="E15">
-        <v>-0.8136125548349042</v>
+        <v>-0.81361255483490424</v>
       </c>
       <c r="F15">
         <v>2.21800943633977</v>
@@ -917,7 +951,7 @@
         <v>-1.009823476456617</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -925,30 +959,30 @@
         <v>-1.297648851412035</v>
       </c>
       <c r="C16">
-        <v>-0.9564169566168204</v>
+        <v>-0.95641695661682036</v>
       </c>
       <c r="D16">
-        <v>2.104890104319367</v>
+        <v>2.1048901043193671</v>
       </c>
       <c r="E16">
         <v>1.191912547745744</v>
       </c>
       <c r="F16">
-        <v>-1.044956846434843</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>-1.0449568464348431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1.360180737723297</v>
+        <v>1.3601807377232971</v>
       </c>
       <c r="C17">
-        <v>0.4085372651491639</v>
+        <v>0.40853726514916389</v>
       </c>
       <c r="D17">
-        <v>-1.722052458541342</v>
+        <v>-1.7220524585413419</v>
       </c>
       <c r="E17">
         <v>-1.987866238238027</v>
@@ -957,36 +991,36 @@
         <v>2.413727231920618</v>
       </c>
       <c r="G17">
-        <v>0.3385273650995941</v>
+        <v>0.33852736509959408</v>
       </c>
       <c r="H17">
-        <v>-0.2029682420031236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>-0.20296824200312361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1.130300885213643</v>
+        <v>-1.1303008852136429</v>
       </c>
       <c r="C18">
-        <v>-1.669036822386374</v>
+        <v>-1.6690368223863741</v>
       </c>
       <c r="D18">
         <v>2.620173050633213</v>
       </c>
       <c r="E18">
-        <v>0.4647489196503187</v>
+        <v>0.46474891965031873</v>
       </c>
       <c r="F18">
-        <v>-0.2721423809044978</v>
+        <v>-0.27214238090449783</v>
       </c>
       <c r="G18">
         <v>-1.672782902616945</v>
       </c>
       <c r="H18">
-        <v>0.133225882922531</v>
+        <v>0.13322588292253101</v>
       </c>
       <c r="I18">
         <v>1.099488893348251</v>
@@ -995,47 +1029,47 @@
         <v>1.02513052979252</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1.276369645177681</v>
+        <v>1.2763696451776809</v>
       </c>
       <c r="C19">
-        <v>0.3703718232899149</v>
+        <v>0.37037182328991491</v>
       </c>
       <c r="D19">
-        <v>-0.0513527783301555</v>
+        <v>-5.1352778330155502E-2</v>
       </c>
       <c r="E19">
-        <v>-1.530905341462443</v>
+        <v>-1.5309053414624429</v>
       </c>
       <c r="F19">
-        <v>0.2746572405271337</v>
+        <v>0.27465724052713369</v>
       </c>
       <c r="G19">
-        <v>1.213896093912865</v>
+        <v>1.2138960939128649</v>
       </c>
       <c r="H19">
-        <v>1.139434020016424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>1.1394340200164239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.6088589929788666</v>
+        <v>0.60885899297886659</v>
       </c>
       <c r="C20">
         <v>-1.562145573193078</v>
       </c>
       <c r="D20">
-        <v>0.2427520617176384</v>
+        <v>0.24275206171763841</v>
       </c>
       <c r="E20">
-        <v>1.207215076819509</v>
+        <v>1.2072150768195089</v>
       </c>
       <c r="F20">
         <v>1.132846106734974</v>
@@ -1044,59 +1078,59 @@
         <v>-1.42728640096162</v>
       </c>
       <c r="H20">
-        <v>0.03598717831744125</v>
+        <v>3.5987178317441249E-2</v>
       </c>
       <c r="I20">
-        <v>-0.2428542957582863</v>
+        <v>-0.24285429575828629</v>
       </c>
       <c r="J20">
-        <v>-0.6267944630007347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>-0.62679446300073471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.4378799063939169</v>
+        <v>0.43787990639391688</v>
       </c>
       <c r="C21">
-        <v>1.169235131790117</v>
+        <v>1.1692351317901171</v>
       </c>
       <c r="D21">
-        <v>1.123603938676368</v>
+        <v>1.1236039386763681</v>
       </c>
       <c r="E21">
         <v>-1.300806036781851</v>
       </c>
       <c r="F21">
-        <v>0.1687990857433732</v>
+        <v>0.16879908574337321</v>
       </c>
       <c r="G21">
-        <v>-0.2269585521979934</v>
+        <v>-0.22695855219799341</v>
       </c>
       <c r="H21">
-        <v>-0.6110182029889868</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>-0.61101820298898679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1.471017871562409</v>
+        <v>1.4710178715624089</v>
       </c>
       <c r="C22">
-        <v>-1.164025704577171</v>
+        <v>-1.1640257045771709</v>
       </c>
       <c r="D22">
-        <v>0.1475342282922441</v>
+        <v>0.14753422829224411</v>
       </c>
       <c r="E22">
-        <v>-0.1577459287170996</v>
+        <v>-0.15774592871709961</v>
       </c>
       <c r="F22">
-        <v>-0.6786873268091964</v>
+        <v>-0.67868732680919641</v>
       </c>
       <c r="G22">
         <v>-1.29426829016196</v>
@@ -1105,13 +1139,13 @@
         <v>1.614532096399159</v>
       </c>
       <c r="I22">
-        <v>-0.6089855557249564</v>
+        <v>-0.60898555572495638</v>
       </c>
       <c r="J22">
-        <v>-0.03592789360209281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>-3.5927893602092809E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1119,54 +1153,54 @@
         <v>-1.09825494172705</v>
       </c>
       <c r="C23">
-        <v>0.249064015459652</v>
+        <v>0.24906401545965201</v>
       </c>
       <c r="D23">
-        <v>-0.06558035544716179</v>
+        <v>-6.5580355447161787E-2</v>
       </c>
       <c r="E23">
         <v>-0.4476163877948236</v>
       </c>
       <c r="F23">
-        <v>-1.345767076377251</v>
+        <v>-1.3457670763772509</v>
       </c>
       <c r="G23">
         <v>1.590077704684191</v>
       </c>
       <c r="H23">
-        <v>-0.5786345742639725</v>
+        <v>-0.57863457426397247</v>
       </c>
       <c r="I23">
-        <v>-0.005475380546130282</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>-5.4753805461302818E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.8399456703354107</v>
+        <v>0.83994567033541068</v>
       </c>
       <c r="C24">
-        <v>-0.4181793108527586</v>
+        <v>-0.41817931085275861</v>
       </c>
       <c r="D24">
-        <v>-0.8017327382776072</v>
+        <v>-0.80173273827760716</v>
       </c>
       <c r="E24">
-        <v>-1.247679592310058</v>
+        <v>-1.2476795923100581</v>
       </c>
       <c r="F24">
         <v>1.679442015339575</v>
       </c>
       <c r="G24">
-        <v>-0.5197075958210746</v>
+        <v>-0.51970759582107462</v>
       </c>
       <c r="H24">
-        <v>0.05306786400403496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>5.3067864004034959E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1174,7 +1208,7 @@
         <v>-0.1546328394443407</v>
       </c>
       <c r="C25">
-        <v>-0.6878587637077798</v>
+        <v>-0.68785876370777976</v>
       </c>
       <c r="D25">
         <v>-1.235452602190273</v>
@@ -1183,30 +1217,30 @@
         <v>1.692184526311763</v>
       </c>
       <c r="F25">
-        <v>-0.5069414823033753</v>
+        <v>-0.50694148230337532</v>
       </c>
       <c r="G25">
-        <v>0.06585754119403475</v>
+        <v>6.5857541194034752E-2</v>
       </c>
       <c r="H25">
-        <v>-3.507628079192392</v>
+        <v>-3.5076280791923922</v>
       </c>
       <c r="I25">
-        <v>4.814296967687382</v>
+        <v>4.8142969676873824</v>
       </c>
       <c r="J25">
-        <v>2.559784639215266</v>
+        <v>2.5597846392152661</v>
       </c>
       <c r="K25">
-        <v>-1.243137068610409</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>-1.2431370686104091</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.484323073947277</v>
+        <v>-0.48432307394727703</v>
       </c>
       <c r="C26">
         <v>-1.2</v>
@@ -1215,54 +1249,54 @@
         <v>1.726414746480526</v>
       </c>
       <c r="E26">
-        <v>-0.47298037143037</v>
+        <v>-0.47298037143036997</v>
       </c>
       <c r="F26">
-        <v>0.099549948636249</v>
+        <v>9.9549948636248997E-2</v>
       </c>
       <c r="G26">
         <v>-3.6</v>
       </c>
       <c r="H26">
-        <v>4.722133416425748</v>
+        <v>4.7221334164257476</v>
       </c>
       <c r="I26">
-        <v>2.467214790670653</v>
+        <v>2.4672147906706532</v>
       </c>
       <c r="J26">
-        <v>-1.336112747457122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>-1.3361127474571219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1.089838490997275</v>
+        <v>-1.0898384909972749</v>
       </c>
       <c r="C27">
         <v>1.733807935313749</v>
       </c>
       <c r="D27">
-        <v>-0.4923914974394563</v>
+        <v>-0.49239149743945632</v>
       </c>
       <c r="E27">
-        <v>0.06704212156272149</v>
+        <v>6.7042121562721491E-2</v>
       </c>
       <c r="F27">
-        <v>-3.621352325654817</v>
+        <v>-3.6213523256548168</v>
       </c>
       <c r="G27">
-        <v>4.701722684548911</v>
+        <v>4.7017226845489111</v>
       </c>
       <c r="H27">
-        <v>2.44721488550087</v>
+        <v>2.4472148855008702</v>
       </c>
       <c r="I27">
         <v>-1.35570261286702</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1270,121 +1304,121 @@
         <v>1.726414746480526</v>
       </c>
       <c r="C28">
-        <v>-0.57298037143037</v>
+        <v>-0.57298037143036995</v>
       </c>
       <c r="D28">
-        <v>-0.0004500513637509806</v>
+        <v>-4.5005136375098059E-4</v>
       </c>
       <c r="E28">
         <v>-3.6</v>
       </c>
       <c r="F28">
-        <v>4.722133416425748</v>
+        <v>4.7221334164257476</v>
       </c>
       <c r="G28">
-        <v>2.467214790670653</v>
+        <v>2.4672147906706532</v>
       </c>
       <c r="H28">
-        <v>-1.336112747457122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>-1.3361127474571219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.3465303863530806</v>
+        <v>-0.34653038635308059</v>
       </c>
       <c r="C29">
-        <v>0.006507241844232681</v>
+        <v>6.5072418442326807E-3</v>
       </c>
       <c r="D29">
-        <v>-3.638419649569803</v>
+        <v>-3.6384196495698031</v>
       </c>
       <c r="E29">
-        <v>4.684159008723895</v>
+        <v>4.6841590087238947</v>
       </c>
       <c r="F29">
-        <v>2.429556074656347</v>
+        <v>2.4295560746563472</v>
       </c>
       <c r="G29">
-        <v>-1.373456114326629</v>
+        <v>-1.3734561143266291</v>
       </c>
       <c r="H29">
-        <v>-0.8216403633849296</v>
+        <v>-0.82164036338492963</v>
       </c>
       <c r="I29">
-        <v>0.04320316187430251</v>
+        <v>4.3203161874302509E-2</v>
       </c>
       <c r="J29">
         <v>2.65742384356551</v>
       </c>
       <c r="K29">
-        <v>0.2848993550424694</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>0.28489935504246938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.3309783129559208</v>
+        <v>-0.33097831295592078</v>
       </c>
       <c r="C30">
         <v>-3.620980224932032</v>
       </c>
       <c r="D30">
-        <v>4.699844840588724</v>
+        <v>4.6998448405887236</v>
       </c>
       <c r="E30">
         <v>2.383768381140186</v>
       </c>
       <c r="F30">
-        <v>-1.41944676982753</v>
+        <v>-1.4194467698275299</v>
       </c>
       <c r="G30">
-        <v>-0.7395707308595973</v>
+        <v>-0.73957073085959735</v>
       </c>
       <c r="H30">
-        <v>0.1253694008080828</v>
+        <v>0.12536940080808279</v>
       </c>
       <c r="I30">
         <v>2.739641128970618</v>
       </c>
       <c r="J30">
-        <v>0.3671676269781869</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>0.36716762697818689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-3.12902205870707</v>
+        <v>-3.1290220587070698</v>
       </c>
       <c r="C31">
-        <v>3.827026677757501</v>
+        <v>3.8270266777575008</v>
       </c>
       <c r="D31">
-        <v>2.312938061127625</v>
+        <v>2.3129380611276251</v>
       </c>
       <c r="E31">
         <v>-1.412422361025421</v>
       </c>
       <c r="F31">
-        <v>-0.738516708955018</v>
+        <v>-0.73851670895501798</v>
       </c>
       <c r="G31">
-        <v>0.126367173127818</v>
+        <v>0.12636717312781801</v>
       </c>
       <c r="H31">
         <v>2.740638173266631</v>
       </c>
       <c r="I31">
-        <v>0.3681639407994481</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>0.36816394079944809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>40</v>
       </c>
@@ -1392,80 +1426,80 @@
         <v>-1.777866583574252</v>
       </c>
       <c r="C32">
-        <v>3.067214790670653</v>
+        <v>3.0672147906706528</v>
       </c>
       <c r="D32">
-        <v>-0.9361127474571219</v>
+        <v>-0.93611274745712192</v>
       </c>
       <c r="E32">
         <v>-0.2425072417365669</v>
       </c>
       <c r="F32">
-        <v>0.5221078531803471</v>
+        <v>0.52210785318034714</v>
       </c>
       <c r="G32">
-        <v>2.836211685220064</v>
+        <v>2.8362116852200638</v>
       </c>
       <c r="H32">
-        <v>0.4635704509710337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0.46357045097103372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B33">
-        <v>1.57303114529411</v>
+        <v>1.5730311452941099</v>
       </c>
       <c r="C33">
-        <v>-1.01961115877809</v>
+        <v>-1.0196111587780901</v>
       </c>
       <c r="D33">
-        <v>-0.2669319491132853</v>
+        <v>-0.26693194911328533</v>
       </c>
       <c r="E33">
-        <v>0.5697005245726245</v>
+        <v>0.56970052457262454</v>
       </c>
       <c r="F33">
-        <v>2.875794259982541</v>
+        <v>2.8757942599825408</v>
       </c>
       <c r="G33">
-        <v>0.5034858273866547</v>
+        <v>0.50348582738665471</v>
       </c>
       <c r="H33">
-        <v>-4.057675159112989</v>
+        <v>-4.0576751591129891</v>
       </c>
       <c r="I33">
-        <v>3.927615181527571</v>
+        <v>3.9276151815275711</v>
       </c>
       <c r="J33">
         <v>1.999097423447636</v>
       </c>
       <c r="K33">
-        <v>3.417723359031953</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>3.4177233590319531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.9559537387236787</v>
+        <v>-0.95595373872367873</v>
       </c>
       <c r="C34">
-        <v>0.1447764585970082</v>
+        <v>0.14477645859700819</v>
       </c>
       <c r="D34">
-        <v>0.8495941736055952</v>
+        <v>0.84959417360559519</v>
       </c>
       <c r="E34">
-        <v>3.239080688744422</v>
+        <v>3.2390806887444219</v>
       </c>
       <c r="F34">
-        <v>0.8542027045791087</v>
+        <v>0.85420270457910874</v>
       </c>
       <c r="G34">
-        <v>-4.1459117183948</v>
+        <v>-4.1459117183948004</v>
       </c>
       <c r="H34">
         <v>3.833067940754503</v>
@@ -1477,41 +1511,41 @@
         <v>3.261658739678893</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-4.771677113645339</v>
+        <v>-4.7716771136453389</v>
       </c>
       <c r="C35">
         <v>2.229071536450093</v>
       </c>
       <c r="D35">
-        <v>4.567679738713195</v>
+        <v>4.5676797387131947</v>
       </c>
       <c r="E35">
-        <v>1.696991460019249</v>
+        <v>1.6969914600192491</v>
       </c>
       <c r="F35">
-        <v>-3.846852060109924</v>
+        <v>-3.8468520601099239</v>
       </c>
       <c r="G35">
-        <v>3.946707939251979</v>
+        <v>3.9467079392519788</v>
       </c>
       <c r="H35">
-        <v>1.790872923395667</v>
+        <v>1.7908729233956671</v>
       </c>
       <c r="I35">
-        <v>3.209648622572857</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>3.2096486225728569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.4100490629526377</v>
+        <v>0.41004906295263771</v>
       </c>
       <c r="C36">
         <v>3.915434831521921</v>
@@ -1520,106 +1554,106 @@
         <v>1.174576618391953</v>
       </c>
       <c r="E36">
-        <v>-3.984901897990014</v>
+        <v>-3.9849018979900142</v>
       </c>
       <c r="F36">
-        <v>3.896620777387241</v>
+        <v>3.8966207773872412</v>
       </c>
       <c r="G36">
         <v>1.7888092984888</v>
       </c>
       <c r="H36">
-        <v>3.207583725027874</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>3.2075837250278738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B37">
-        <v>3.431803098922358</v>
+        <v>3.4318030989223578</v>
       </c>
       <c r="C37">
         <v>1.455269040524755</v>
       </c>
       <c r="D37">
-        <v>-3.621618559643949</v>
+        <v>-3.6216185596439492</v>
       </c>
       <c r="E37">
-        <v>4.030816704194478</v>
+        <v>4.0308167041944776</v>
       </c>
       <c r="F37">
-        <v>2.025444149368581</v>
+        <v>2.0254441493685809</v>
       </c>
       <c r="G37">
         <v>3.444510680095163</v>
       </c>
       <c r="H37">
-        <v>-3.510785674933714</v>
+        <v>-3.5107856749337141</v>
       </c>
       <c r="I37">
-        <v>0.1898124181703338</v>
+        <v>0.18981241817033381</v>
       </c>
       <c r="J37">
-        <v>-0.05255040135403977</v>
+        <v>-5.2550401354039773E-2</v>
       </c>
       <c r="K37">
-        <v>2.102933852855202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>2.1029338528552022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.3011522604381155</v>
+        <v>0.30115226043811549</v>
       </c>
       <c r="C38">
-        <v>-2.723062809051385</v>
+        <v>-2.7230628090513851</v>
       </c>
       <c r="D38">
-        <v>4.861711150938049</v>
+        <v>4.8617111509380493</v>
       </c>
       <c r="E38">
-        <v>2.694957165246606</v>
+        <v>2.6949571652466058</v>
       </c>
       <c r="F38">
-        <v>3.735044132747447</v>
+        <v>3.7350441327474471</v>
       </c>
       <c r="G38">
-        <v>-3.515824295324762</v>
+        <v>-3.5158242953247618</v>
       </c>
       <c r="H38">
-        <v>0.1936565049194315</v>
+        <v>0.19365650491943151</v>
       </c>
       <c r="I38">
-        <v>-0.05108932852549231</v>
+        <v>-5.1089328525492313E-2</v>
       </c>
       <c r="J38">
         <v>2.104624275243097</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-2.515288930168324</v>
+        <v>-2.5152889301683241</v>
       </c>
       <c r="C39">
-        <v>5.187638211362298</v>
+        <v>5.1876382113622981</v>
       </c>
       <c r="D39">
-        <v>2.68006803588436</v>
+        <v>2.6800680358843598</v>
       </c>
       <c r="E39">
-        <v>3.868952267349769</v>
+        <v>3.8689522673497692</v>
       </c>
       <c r="F39">
-        <v>-3.066088891488476</v>
+        <v>-3.0660888914884761</v>
       </c>
       <c r="G39">
-        <v>0.328237968253589</v>
+        <v>0.32823796825358897</v>
       </c>
       <c r="H39">
         <v>0.1284698582589954</v>
@@ -1628,24 +1662,24 @@
         <v>2.257855109346266</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B40">
-        <v>1.765433747299823</v>
+        <v>1.7654337472998229</v>
       </c>
       <c r="C40">
         <v>2.069010407901871</v>
       </c>
       <c r="D40">
-        <v>4.448188472782732</v>
+        <v>4.4481884727827321</v>
       </c>
       <c r="E40">
-        <v>-3.511486420577043</v>
+        <v>-3.5114864205770431</v>
       </c>
       <c r="F40">
-        <v>0.06804019270423123</v>
+        <v>6.8040192704231228E-2</v>
       </c>
       <c r="G40">
         <v>-0.2191184342101451</v>
@@ -1654,74 +1688,74 @@
         <v>1.93585268294639</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B41">
-        <v>1.189993269783784</v>
+        <v>1.1899932697837841</v>
       </c>
       <c r="C41">
-        <v>2.091246072172353</v>
+        <v>2.0912460721723529</v>
       </c>
       <c r="D41">
-        <v>-4.495499248385215</v>
+        <v>-4.4954992483852152</v>
       </c>
       <c r="E41">
-        <v>0.08768122124638472</v>
+        <v>8.7681221246384722E-2</v>
       </c>
       <c r="F41">
-        <v>0.07134034215198432</v>
+        <v>7.1340342151984315E-2</v>
       </c>
       <c r="G41">
-        <v>2.301911577851001</v>
+        <v>2.3019115778510009</v>
       </c>
       <c r="H41">
-        <v>-1.679327730985363</v>
+        <v>-1.6793277309853629</v>
       </c>
       <c r="I41">
-        <v>2.913261105228884</v>
+        <v>2.9132611052288842</v>
       </c>
       <c r="J41">
-        <v>1.128109573359311</v>
+        <v>1.1281095733593109</v>
       </c>
       <c r="K41">
-        <v>-0.2615008865170834</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>-0.26150088651708342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B42">
-        <v>2.350441341333109</v>
+        <v>2.3504413413331089</v>
       </c>
       <c r="C42">
-        <v>-4.93636120606456</v>
+        <v>-4.9363612060645599</v>
       </c>
       <c r="D42">
-        <v>-0.4802917043771799</v>
+        <v>-0.48029170437717988</v>
       </c>
       <c r="E42">
         <v>-0.1767461190607662</v>
       </c>
       <c r="F42">
-        <v>2.317036804273357</v>
+        <v>2.3170368042733571</v>
       </c>
       <c r="G42">
         <v>-1.938024891301992</v>
       </c>
       <c r="H42">
-        <v>2.801907327083242</v>
+        <v>2.8019073270832422</v>
       </c>
       <c r="I42">
-        <v>1.262712454744403</v>
+        <v>1.2627124547444031</v>
       </c>
       <c r="J42">
-        <v>-0.3094643958157375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>-0.30946439581573748</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1729,39 +1763,39 @@
         <v>-3.293640845203015</v>
       </c>
       <c r="C43">
-        <v>-0.8037086374191347</v>
+        <v>-0.80370863741913467</v>
       </c>
       <c r="D43">
-        <v>-0.08811231398180996</v>
+        <v>-8.8112313981809964E-2</v>
       </c>
       <c r="E43">
-        <v>2.456597102763453</v>
+        <v>2.4565971027634532</v>
       </c>
       <c r="F43">
-        <v>-1.833817599274084</v>
+        <v>-1.8338175992740839</v>
       </c>
       <c r="G43">
-        <v>3.138671373229428</v>
+        <v>3.1386713732294278</v>
       </c>
       <c r="H43">
-        <v>1.196538011784739</v>
+        <v>1.1965380117847391</v>
       </c>
       <c r="I43">
-        <v>-0.4807985826035688</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>-0.48079858260356878</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B44">
-        <v>-1.315328504146407</v>
+        <v>-1.3153285041464069</v>
       </c>
       <c r="C44">
         <v>-1.91543092213928</v>
       </c>
       <c r="D44">
-        <v>0.56357450163442</v>
+        <v>0.56357450163442002</v>
       </c>
       <c r="E44">
         <v>-3.465661424157545</v>
@@ -1770,21 +1804,21 @@
         <v>1.537713303588077</v>
       </c>
       <c r="G44">
-        <v>0.1839926965875378</v>
+        <v>0.18399269658753781</v>
       </c>
       <c r="H44">
         <v>-1.104466155537849</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-1.685642723295871</v>
+        <v>-1.6856427232958711</v>
       </c>
       <c r="C45">
-        <v>0.8248987500683143</v>
+        <v>0.82489875006831426</v>
       </c>
       <c r="D45">
         <v>-3.23585805171767</v>
@@ -1793,68 +1827,68 @@
         <v>1.740327668122859</v>
       </c>
       <c r="F45">
-        <v>0.1760759037163808</v>
+        <v>0.17607590371638079</v>
       </c>
       <c r="G45">
-        <v>-0.921769697731065</v>
+        <v>-0.92176969773106499</v>
       </c>
       <c r="H45">
-        <v>-0.3284578705855523</v>
+        <v>-0.32845787058555231</v>
       </c>
       <c r="I45">
-        <v>2.335832826486041</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>2.3358328264860408</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.4964247088772</v>
+        <v>0.49642470887720003</v>
       </c>
       <c r="C46">
-        <v>-3.530943771449784</v>
+        <v>-3.5309437714497842</v>
       </c>
       <c r="D46">
         <v>1.858119926227374</v>
       </c>
       <c r="E46">
-        <v>0.398443140811267</v>
+        <v>0.39844314081126703</v>
       </c>
       <c r="F46">
-        <v>-0.7792217473407275</v>
+        <v>-0.77922174734072747</v>
       </c>
       <c r="G46">
-        <v>-0.2738234784814466</v>
+        <v>-0.27382347848144661</v>
       </c>
       <c r="H46">
         <v>2.342000873615405</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B47">
-        <v>-2.879911695062517</v>
+        <v>-2.8799116950625172</v>
       </c>
       <c r="C47">
-        <v>1.497418358218937</v>
+        <v>1.4974183582189371</v>
       </c>
       <c r="D47">
-        <v>0.2510807159781052</v>
+        <v>0.25108071597810522</v>
       </c>
       <c r="E47">
-        <v>-0.6964508196175385</v>
+        <v>-0.69645081961753852</v>
       </c>
       <c r="F47">
         <v>-0.1038461031879904</v>
       </c>
       <c r="G47">
-        <v>2.593693038501684</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>2.5936930385016841</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -1862,19 +1896,19 @@
         <v>0.6927000937718053</v>
       </c>
       <c r="C48">
-        <v>-0.07021797904131688</v>
+        <v>-7.021797904131688E-2</v>
       </c>
       <c r="D48">
-        <v>-0.9390986937464303</v>
+        <v>-0.93909869374643029</v>
       </c>
       <c r="E48">
-        <v>-0.2225554198533644</v>
+        <v>-0.22255541985336441</v>
       </c>
       <c r="F48">
-        <v>2.519763864333087</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>2.5197638643330871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1885,46 +1919,46 @@
         <v>-1.231680898354085</v>
       </c>
       <c r="D49">
-        <v>-0.4238791963643536</v>
+        <v>-0.42387919636435362</v>
       </c>
       <c r="E49">
-        <v>2.304234041649793</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>2.3042340416497931</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>-1.407956512576945</v>
+        <v>-1.4079565125769451</v>
       </c>
       <c r="C50">
-        <v>-0.5920447923641206</v>
+        <v>-0.59204479236412055</v>
       </c>
       <c r="D50">
-        <v>2.173206329256061</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>2.1732063292560611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.7526570575950728</v>
+        <v>-0.75265705759507284</v>
       </c>
       <c r="C51">
-        <v>2.116537888391975</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>2.1165378883919752</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>2.068463645145983</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>2.0684636451459828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
